--- a/Laufzeit Benchmarks.xlsx
+++ b/Laufzeit Benchmarks.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>Mit Daten kopieren</t>
   </si>
@@ -158,10 +158,10 @@
     <t>niedrigste gemessene Zeit bei 100 durchläufen</t>
   </si>
   <si>
-    <t xml:space="preserve"> CPU 3</t>
+    <t>laser.mmpld</t>
   </si>
   <si>
-    <t>laser.mmpld</t>
+    <t xml:space="preserve"> CPU 2</t>
   </si>
 </sst>
 </file>
@@ -308,9 +308,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -349,6 +346,10 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,7 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,6 +737,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -985,6 +986,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1075,20 +1115,227 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>CPU 1</c:v>
+            <c:strRef>
+              <c:f>Tabelle2!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle2!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$B$15:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.324</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.063000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.920999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.731999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-608A-43E6-B652-0A8BC0A750C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1097,482 +1344,553 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]Tabelle1!$A$5:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1800000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1400000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]Tabelle1!$C$5:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>123.917</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>114.949</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>103.092</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>94.078000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.269000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76.700999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66.156999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56.189</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43.987000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.097999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5377-4866-82FA-7D5A59A8DD4B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>CPU 2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
             <c:numRef>
               <c:f>Tabelle2!$A$15:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1800000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1400000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$F$15:$F$24</c:f>
+              <c:f>Tabelle2!$E$15:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>125.229</c:v>
+                  <c:v>27.097999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114.711</c:v>
+                  <c:v>43.987000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.947</c:v>
+                  <c:v>56.189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.811000000000007</c:v>
+                  <c:v>66.156999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.52</c:v>
+                  <c:v>76.700999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.269000000000005</c:v>
+                  <c:v>85.269000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.209000000000003</c:v>
+                  <c:v>94.078000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.795000000000002</c:v>
+                  <c:v>103.092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.322000000000003</c:v>
+                  <c:v>114.949</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.454000000000001</c:v>
+                  <c:v>123.917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5377-4866-82FA-7D5A59A8DD4B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>GPU 1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]Tabelle1!$A$5:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1800000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1400000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]Tabelle1!$B$5:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>20.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.731999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.920999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.063000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.119</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.324</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.62</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.6079999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.84</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5377-4866-82FA-7D5A59A8DD4B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>GPU 2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle2!$A$15:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1800000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1400000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle2!$C$15:$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>20.282</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.489000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.954000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.153</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.282</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.244</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.3320000000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.5789999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.7610000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8460000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5377-4866-82FA-7D5A59A8DD4B}"/>
+              <c16:uniqueId val="{00000002-608A-43E6-B652-0A8BC0A750C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="542910376"/>
-        <c:axId val="542907096"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="542910376"/>
+        <c:smooth val="0"/>
+        <c:axId val="539811744"/>
+        <c:axId val="652484336"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle2!$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GPU 2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="de-DE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle2!$A$15:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>400000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>600000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>800000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1200000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1400000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1600000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1800000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle2!$C$15:$C$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>3.8460000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.7610000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.5789999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9.3320000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>11.244</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13.282</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15.153</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16.954000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>18.489000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20.282</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-608A-43E6-B652-0A8BC0A750C6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle2!$F$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CPU 2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="de-DE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle2!$A$15:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>400000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>600000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>800000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1200000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1400000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1600000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1800000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle2!$F$15:$F$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>26.454000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43.322000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>55.795000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>66.209000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>76.269000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>86.52</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>92.811000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>103.947</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>114.711</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>125.229</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-608A-43E6-B652-0A8BC0A750C6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="539811744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1594,13 +1912,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Partikel</a:t>
+                  <a:t>Partikel Anzahl</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> Anzahl</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1642,8 +1955,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1670,12 +1983,15 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542907096"/>
+        <c:crossAx val="652484336"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="542907096"/>
+        <c:axId val="652484336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,11 +2032,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Laufzeit</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> in ms</a:t>
+                  <a:t>Laufzeit in ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1760,14 +2072,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1791,9 +2097,9 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542910376"/>
+        <c:crossAx val="539811744"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1804,17 +2110,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.91599348751297249"/>
-          <c:y val="0.43153712796970489"/>
-          <c:w val="6.6414711418591871E-2"/>
-          <c:h val="0.13005871375904604"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4431,7 +4727,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> CPU 3</c:v>
+                  <c:v> CPU 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5068,7 +5364,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6107,7 +6402,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6134,8 +6429,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6215,6 +6510,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6225,6 +6525,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6236,7 +6541,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6256,6 +6561,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6268,10 +6576,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6311,23 +6619,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6432,8 +6739,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6565,20 +6872,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6592,17 +6898,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7645,14 +7940,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -7686,29 +7981,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25327FDA-1912-4DDD-BD36-2D4A5936F101}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6B2E82-A9FE-49D8-BD7E-8DD9E8618B8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8230,238 +8523,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDBFD6F-1AC2-4396-A59E-40555DBC7422}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="48">
         <v>20</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="H4" s="20" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="9" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="32" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="33"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="H5" s="23" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="H5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="12" t="s">
+      <c r="K5" s="24"/>
+      <c r="L5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="35" t="s">
+      <c r="O5" s="13"/>
+      <c r="P5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="H6" s="26">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="H6" s="25">
         <v>200000</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <v>3.88</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <f>I7-I6</f>
         <v>1.9000000000000004</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="15">
+      <c r="K6" s="24"/>
+      <c r="L6" s="14">
         <v>200000</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <v>2.6640000000000001</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="15">
         <f>M7-M6</f>
         <v>0.67399999999999993</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="38">
+      <c r="O6" s="13"/>
+      <c r="P6" s="37">
         <v>200000</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="38">
         <v>1.47</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="39">
         <f>Q7-Q6</f>
         <v>0.44700000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="H7" s="26">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="H7" s="25">
         <v>400000</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <v>5.78</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <f t="shared" ref="J7:J14" si="0">I8-I7</f>
         <v>1.8099999999999996</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="15">
+      <c r="K7" s="24"/>
+      <c r="L7" s="14">
         <v>400000</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>3.3380000000000001</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="15">
         <f t="shared" ref="N7:N14" si="1">M8-M7</f>
         <v>0.57699999999999996</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="38">
+      <c r="O7" s="13"/>
+      <c r="P7" s="37">
         <v>400000</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="38">
         <v>1.917</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="39">
         <f t="shared" ref="R7:R14" si="2">Q8-Q7</f>
         <v>0.32499999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="H8" s="26">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="H8" s="25">
         <v>600000</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <v>7.59</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="26">
         <f t="shared" si="0"/>
         <v>1.9499999999999993</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="15">
+      <c r="K8" s="24"/>
+      <c r="L8" s="14">
         <v>600000</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>3.915</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="15">
         <f t="shared" si="1"/>
         <v>0.51199999999999957</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="38">
+      <c r="O8" s="13"/>
+      <c r="P8" s="37">
         <v>600000</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="38">
         <v>2.242</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="39">
         <f t="shared" si="2"/>
         <v>0.37000000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="44" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="50" t="s">
@@ -8470,254 +8763,254 @@
       <c r="C9" s="50"/>
       <c r="D9" s="50"/>
       <c r="E9" s="51"/>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>800000</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <v>9.5399999999999991</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <f t="shared" si="0"/>
         <v>1.8600000000000012</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="15">
+      <c r="K9" s="24"/>
+      <c r="L9" s="14">
         <v>800000</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <v>4.4269999999999996</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="15">
         <f t="shared" si="1"/>
         <v>0.60300000000000065</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="38">
+      <c r="O9" s="13"/>
+      <c r="P9" s="37">
         <v>800000</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="38">
         <v>2.6120000000000001</v>
       </c>
-      <c r="R9" s="40">
+      <c r="R9" s="39">
         <f t="shared" si="2"/>
         <v>0.44899999999999984</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>1000000</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <v>11.4</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <f t="shared" si="0"/>
         <v>2.0399999999999991</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="15">
+      <c r="K10" s="24"/>
+      <c r="L10" s="14">
         <v>1000000</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <v>5.03</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <f t="shared" si="1"/>
         <v>0.97499999999999964</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="38">
+      <c r="O10" s="13"/>
+      <c r="P10" s="37">
         <v>1000000</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="38">
         <v>3.0609999999999999</v>
       </c>
-      <c r="R10" s="40">
+      <c r="R10" s="39">
         <f t="shared" si="2"/>
         <v>0.7330000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>1200000</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <v>13.44</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="26">
         <f t="shared" si="0"/>
         <v>1.6600000000000001</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="15">
+      <c r="K11" s="24"/>
+      <c r="L11" s="14">
         <v>1200000</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>6.0049999999999999</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <f t="shared" si="1"/>
         <v>0.45900000000000052</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="38">
+      <c r="O11" s="13"/>
+      <c r="P11" s="37">
         <v>1200000</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="38">
         <v>3.794</v>
       </c>
-      <c r="R11" s="40">
+      <c r="R11" s="39">
         <f t="shared" si="2"/>
         <v>0.39999999999999991</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <v>1400000</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="26">
         <v>15.1</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="26">
         <f t="shared" si="0"/>
         <v>2.0099999999999998</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="15">
+      <c r="K12" s="24"/>
+      <c r="L12" s="14">
         <v>1400000</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <v>6.4640000000000004</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="15">
         <f t="shared" si="1"/>
         <v>0.3879999999999999</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="38">
+      <c r="O12" s="13"/>
+      <c r="P12" s="37">
         <v>1400000</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="38">
         <v>4.194</v>
       </c>
-      <c r="R12" s="40">
+      <c r="R12" s="39">
         <f t="shared" si="2"/>
         <v>0.36099999999999977</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <v>1600000</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="26">
         <v>17.11</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="26">
         <f t="shared" si="0"/>
         <v>1.6400000000000006</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="15">
+      <c r="K13" s="24"/>
+      <c r="L13" s="14">
         <v>1600000</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>6.8520000000000003</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="15">
         <f t="shared" si="1"/>
         <v>0.73899999999999988</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="38">
+      <c r="O13" s="13"/>
+      <c r="P13" s="37">
         <v>1600000</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="38">
         <v>4.5549999999999997</v>
       </c>
-      <c r="R13" s="40">
+      <c r="R13" s="39">
         <f t="shared" si="2"/>
         <v>0.47500000000000053</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>1800000</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="26">
         <v>18.75</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="26">
         <f t="shared" si="0"/>
         <v>2.0850000000000009</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="15">
+      <c r="K14" s="24"/>
+      <c r="L14" s="14">
         <v>1800000</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <v>7.5910000000000002</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="15">
         <f t="shared" si="1"/>
         <v>0.4319999999999995</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="38">
+      <c r="O14" s="13"/>
+      <c r="P14" s="37">
         <v>1800000</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="38">
         <v>5.03</v>
       </c>
-      <c r="R14" s="40">
+      <c r="R14" s="39">
         <f t="shared" si="2"/>
         <v>0.3069999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <v>2000000</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="28">
         <v>20.835000000000001</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="17">
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="16">
         <v>2000000</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="30">
         <v>8.0229999999999997</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="41">
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="40">
         <v>2000000</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="41">
         <v>5.3369999999999997</v>
       </c>
-      <c r="R15" s="43"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="22" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
     </row>
   </sheetData>
   <sortState ref="P6:R15">
     <sortCondition ref="P6"/>
   </sortState>
   <mergeCells count="8">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8729,7 +9022,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E10"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8738,23 +9031,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8763,73 +9056,73 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="48">
         <v>20</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="44" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="50" t="s">
@@ -8861,264 +9154,267 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="B15" s="1">
-        <v>20.64</v>
+        <v>3.84</v>
       </c>
       <c r="C15" s="4">
-        <v>20.282</v>
+        <v>3.8460000000000001</v>
       </c>
       <c r="D15">
         <f>ABS(C15-B15)</f>
-        <v>0.35800000000000054</v>
+        <v>6.0000000000002274E-3</v>
       </c>
       <c r="E15" s="2">
-        <v>123.917</v>
+        <v>27.097999999999999</v>
       </c>
       <c r="F15" s="3">
-        <v>125.229</v>
+        <v>26.454000000000001</v>
       </c>
       <c r="G15">
         <f>ABS(F15-E15)</f>
-        <v>1.3119999999999976</v>
+        <v>0.64399999999999835</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1800000</v>
+        <v>400000</v>
       </c>
       <c r="B16" s="1">
-        <v>18.731999999999999</v>
+        <v>5.6079999999999997</v>
       </c>
       <c r="C16" s="4">
-        <v>18.489000000000001</v>
+        <v>5.7610000000000001</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D24" si="0">ABS(C16-B16)</f>
-        <v>0.24299999999999855</v>
+        <f>ABS(C16-B16)</f>
+        <v>0.15300000000000047</v>
       </c>
       <c r="E16" s="2">
-        <v>114.949</v>
+        <v>43.987000000000002</v>
       </c>
       <c r="F16" s="3">
-        <v>114.711</v>
+        <v>43.322000000000003</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G24" si="1">ABS(F16-E16)</f>
-        <v>0.23799999999999955</v>
+        <f>ABS(F16-E16)</f>
+        <v>0.66499999999999915</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1600000</v>
+        <v>600000</v>
       </c>
       <c r="B17" s="1">
-        <v>16.920999999999999</v>
+        <v>7.62</v>
       </c>
       <c r="C17" s="4">
-        <v>16.954000000000001</v>
+        <v>7.5789999999999997</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>3.3000000000001251E-2</v>
+        <f>ABS(C17-B17)</f>
+        <v>4.1000000000000369E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>103.092</v>
+        <v>56.189</v>
       </c>
       <c r="F17" s="3">
-        <v>103.947</v>
+        <v>55.795000000000002</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0.85500000000000398</v>
+        <f>ABS(F17-E17)</f>
+        <v>0.39399999999999835</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1400000</v>
+        <v>800000</v>
       </c>
       <c r="B18" s="1">
-        <v>15.063000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C18" s="4">
-        <v>15.153</v>
+        <v>9.3320000000000007</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>8.9999999999999858E-2</v>
+        <f>ABS(C18-B18)</f>
+        <v>0.16799999999999926</v>
       </c>
       <c r="E18" s="2">
-        <v>94.078000000000003</v>
+        <v>66.156999999999996</v>
       </c>
       <c r="F18" s="3">
-        <v>92.811000000000007</v>
+        <v>66.209000000000003</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>1.2669999999999959</v>
+        <f>ABS(F18-E18)</f>
+        <v>5.2000000000006708E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="B19" s="1">
-        <v>13.119</v>
+        <v>11.324</v>
       </c>
       <c r="C19" s="4">
-        <v>13.282</v>
+        <v>11.244</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.16300000000000026</v>
+        <f>ABS(C19-B19)</f>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="E19" s="2">
-        <v>85.269000000000005</v>
+        <v>76.700999999999993</v>
       </c>
       <c r="F19" s="3">
-        <v>86.52</v>
+        <v>76.269000000000005</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>1.2509999999999906</v>
+        <f>ABS(F19-E19)</f>
+        <v>0.43199999999998795</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="B20" s="1">
-        <v>11.324</v>
+        <v>13.119</v>
       </c>
       <c r="C20" s="4">
-        <v>11.244</v>
+        <v>13.282</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000071E-2</v>
+        <f>ABS(C20-B20)</f>
+        <v>0.16300000000000026</v>
       </c>
       <c r="E20" s="2">
-        <v>76.700999999999993</v>
+        <v>85.269000000000005</v>
       </c>
       <c r="F20" s="3">
-        <v>76.269000000000005</v>
+        <v>86.52</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>0.43199999999998795</v>
+        <f>ABS(F20-E20)</f>
+        <v>1.2509999999999906</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>800000</v>
+        <v>1400000</v>
       </c>
       <c r="B21" s="1">
-        <v>9.5</v>
+        <v>15.063000000000001</v>
       </c>
       <c r="C21" s="4">
-        <v>9.3320000000000007</v>
+        <v>15.153</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.16799999999999926</v>
+        <f>ABS(C21-B21)</f>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="E21" s="2">
-        <v>66.156999999999996</v>
+        <v>94.078000000000003</v>
       </c>
       <c r="F21" s="3">
-        <v>66.209000000000003</v>
+        <v>92.811000000000007</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>5.2000000000006708E-2</v>
+        <f>ABS(F21-E21)</f>
+        <v>1.2669999999999959</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>600000</v>
+        <v>1600000</v>
       </c>
       <c r="B22" s="1">
-        <v>7.62</v>
+        <v>16.920999999999999</v>
       </c>
       <c r="C22" s="4">
-        <v>7.5789999999999997</v>
+        <v>16.954000000000001</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>4.1000000000000369E-2</v>
+        <f>ABS(C22-B22)</f>
+        <v>3.3000000000001251E-2</v>
       </c>
       <c r="E22" s="2">
-        <v>56.189</v>
+        <v>103.092</v>
       </c>
       <c r="F22" s="3">
-        <v>55.795000000000002</v>
+        <v>103.947</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>0.39399999999999835</v>
+        <f>ABS(F22-E22)</f>
+        <v>0.85500000000000398</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>400000</v>
+        <v>1800000</v>
       </c>
       <c r="B23" s="1">
-        <v>5.6079999999999997</v>
+        <v>18.731999999999999</v>
       </c>
       <c r="C23" s="4">
-        <v>5.7610000000000001</v>
+        <v>18.489000000000001</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.15300000000000047</v>
+        <f>ABS(C23-B23)</f>
+        <v>0.24299999999999855</v>
       </c>
       <c r="E23" s="2">
-        <v>43.987000000000002</v>
+        <v>114.949</v>
       </c>
       <c r="F23" s="3">
-        <v>43.322000000000003</v>
+        <v>114.711</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>0.66499999999999915</v>
+        <f>ABS(F23-E23)</f>
+        <v>0.23799999999999955</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>200000</v>
+        <v>2000000</v>
       </c>
       <c r="B24" s="1">
-        <v>3.84</v>
+        <v>20.64</v>
       </c>
       <c r="C24" s="4">
-        <v>3.8460000000000001</v>
+        <v>20.282</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>6.0000000000002274E-3</v>
+        <f>ABS(C24-B24)</f>
+        <v>0.35800000000000054</v>
       </c>
       <c r="E24" s="2">
-        <v>27.097999999999999</v>
+        <v>123.917</v>
       </c>
       <c r="F24" s="3">
-        <v>26.454000000000001</v>
+        <v>125.229</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>0.64399999999999835</v>
+        <f>ABS(F24-E24)</f>
+        <v>1.3119999999999976</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A15:G24">
+    <sortCondition ref="A15"/>
+  </sortState>
   <mergeCells count="8">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9130,7 +9426,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E9"/>
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9139,93 +9435,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="48">
         <v>20</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48">
+        <v>2000000</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="44" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="50" t="s">
@@ -9391,80 +9687,80 @@
   <dimension ref="A2:E113"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="48">
         <v>20</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="44" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="50" t="s">
@@ -9488,7 +9784,7 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">

--- a/Laufzeit Benchmarks.xlsx
+++ b/Laufzeit Benchmarks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,17 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7770" xr2:uid="{CF6F9929-A31F-489D-9572-F5B799929CF5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7770" activeTab="4" xr2:uid="{CF6F9929-A31F-489D-9572-F5B799929CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
     <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>Mit Daten kopieren</t>
   </si>
@@ -162,6 +160,15 @@
   </si>
   <si>
     <t xml:space="preserve"> CPU 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GPU mit kopieren</t>
   </si>
 </sst>
 </file>
@@ -347,15 +354,6 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,6 +364,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -737,7 +744,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -791,7 +797,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Partikel Anzahl</a:t>
+                  <a:t>Partikelanzahl</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1698,7 +1704,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tabelle2!$F$14</c15:sqref>
@@ -1763,7 +1769,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1785,7 +1791,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tabelle2!$A$15:$A$24</c15:sqref>
@@ -1830,7 +1836,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tabelle2!$F$15:$F$24</c15:sqref>
@@ -1874,7 +1880,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-608A-43E6-B652-0A8BC0A750C6}"/>
                   </c:ext>
@@ -1912,7 +1918,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Partikel Anzahl</a:t>
+                  <a:t>Partikelanzahl</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2434,6 +2440,44 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Hashgrid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> Dimension</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4453225439127802"/>
+              <c:y val="0.90547660004037955"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5417,7 +5461,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Partikel Anzahl</a:t>
+                  <a:t>Partikelanzahl</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5725,6 +5769,1236 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle5!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle5!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1287</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00AE-40F3-B90E-AC15B4E29F11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> GPU mit kopieren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6198449612403101E-2"/>
+                  <c:y val="-3.2025880485869497E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-00AE-40F3-B90E-AC15B4E29F11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6198449612403101E-2"/>
+                  <c:y val="-3.202588048586965E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-00AE-40F3-B90E-AC15B4E29F11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle5!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle5!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00AE-40F3-B90E-AC15B4E29F11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6198449612403101E-2"/>
+                  <c:y val="-2.37571466357403E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-00AE-40F3-B90E-AC15B4E29F11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6198449612403101E-2"/>
+                  <c:y val="-1.3421229323078801E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-00AE-40F3-B90E-AC15B4E29F11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6198449612403101E-2"/>
+                  <c:y val="-1.9622779710675851E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-00AE-40F3-B90E-AC15B4E29F11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle5!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle5!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-00AE-40F3-B90E-AC15B4E29F11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="543509480"/>
+        <c:axId val="543500952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="543509480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Partikelanzahl in Millionen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543500952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543500952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Laufzeit in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543509480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="50"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5885,6 +7159,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7917,6 +9231,522 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8100,128 +9930,45 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tabelle1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="A5">
-            <v>2000000</v>
-          </cell>
-          <cell r="B5">
-            <v>20.64</v>
-          </cell>
-          <cell r="C5">
-            <v>123.917</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1800000</v>
-          </cell>
-          <cell r="B6">
-            <v>18.731999999999999</v>
-          </cell>
-          <cell r="C6">
-            <v>114.949</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1600000</v>
-          </cell>
-          <cell r="B7">
-            <v>16.920999999999999</v>
-          </cell>
-          <cell r="C7">
-            <v>103.092</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1400000</v>
-          </cell>
-          <cell r="B8">
-            <v>15.063000000000001</v>
-          </cell>
-          <cell r="C8">
-            <v>94.078000000000003</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1200000</v>
-          </cell>
-          <cell r="B9">
-            <v>13.119</v>
-          </cell>
-          <cell r="C9">
-            <v>85.269000000000005</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1000000</v>
-          </cell>
-          <cell r="B10">
-            <v>11.324</v>
-          </cell>
-          <cell r="C10">
-            <v>76.700999999999993</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>800000</v>
-          </cell>
-          <cell r="B11">
-            <v>9.5</v>
-          </cell>
-          <cell r="C11">
-            <v>66.156999999999996</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>600000</v>
-          </cell>
-          <cell r="B12">
-            <v>7.62</v>
-          </cell>
-          <cell r="C12">
-            <v>56.189</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>400000</v>
-          </cell>
-          <cell r="B13">
-            <v>5.6079999999999997</v>
-          </cell>
-          <cell r="C13">
-            <v>43.987000000000002</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>200000</v>
-          </cell>
-          <cell r="B14">
-            <v>3.84</v>
-          </cell>
-          <cell r="C14">
-            <v>27.097999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6272BB7C-5DA6-4559-8BD5-9F288248D974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8523,49 +10270,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDBFD6F-1AC2-4396-A59E-40555DBC7422}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="45">
         <v>20</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
@@ -8588,12 +10335,12 @@
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
       <c r="H5" s="22" t="s">
         <v>2</v>
       </c>
@@ -8628,12 +10375,12 @@
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
       <c r="H6" s="25">
         <v>200000</v>
       </c>
@@ -8671,12 +10418,12 @@
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
       <c r="H7" s="25">
         <v>400000</v>
       </c>
@@ -8714,12 +10461,12 @@
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
       <c r="H8" s="25">
         <v>600000</v>
       </c>
@@ -8757,12 +10504,12 @@
       <c r="A9" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
       <c r="H9" s="25">
         <v>800000</v>
       </c>
@@ -9031,23 +10778,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9059,78 +10806,78 @@
       <c r="A4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="45">
         <v>20</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -9163,7 +10910,7 @@
         <v>3.8460000000000001</v>
       </c>
       <c r="D15">
-        <f>ABS(C15-B15)</f>
+        <f t="shared" ref="D15:D24" si="0">ABS(C15-B15)</f>
         <v>6.0000000000002274E-3</v>
       </c>
       <c r="E15" s="2">
@@ -9173,7 +10920,7 @@
         <v>26.454000000000001</v>
       </c>
       <c r="G15">
-        <f>ABS(F15-E15)</f>
+        <f t="shared" ref="G15:G24" si="1">ABS(F15-E15)</f>
         <v>0.64399999999999835</v>
       </c>
     </row>
@@ -9188,7 +10935,7 @@
         <v>5.7610000000000001</v>
       </c>
       <c r="D16">
-        <f>ABS(C16-B16)</f>
+        <f t="shared" si="0"/>
         <v>0.15300000000000047</v>
       </c>
       <c r="E16" s="2">
@@ -9198,7 +10945,7 @@
         <v>43.322000000000003</v>
       </c>
       <c r="G16">
-        <f>ABS(F16-E16)</f>
+        <f t="shared" si="1"/>
         <v>0.66499999999999915</v>
       </c>
     </row>
@@ -9213,7 +10960,7 @@
         <v>7.5789999999999997</v>
       </c>
       <c r="D17">
-        <f>ABS(C17-B17)</f>
+        <f t="shared" si="0"/>
         <v>4.1000000000000369E-2</v>
       </c>
       <c r="E17" s="2">
@@ -9223,7 +10970,7 @@
         <v>55.795000000000002</v>
       </c>
       <c r="G17">
-        <f>ABS(F17-E17)</f>
+        <f t="shared" si="1"/>
         <v>0.39399999999999835</v>
       </c>
     </row>
@@ -9238,7 +10985,7 @@
         <v>9.3320000000000007</v>
       </c>
       <c r="D18">
-        <f>ABS(C18-B18)</f>
+        <f t="shared" si="0"/>
         <v>0.16799999999999926</v>
       </c>
       <c r="E18" s="2">
@@ -9248,7 +10995,7 @@
         <v>66.209000000000003</v>
       </c>
       <c r="G18">
-        <f>ABS(F18-E18)</f>
+        <f t="shared" si="1"/>
         <v>5.2000000000006708E-2</v>
       </c>
     </row>
@@ -9263,7 +11010,7 @@
         <v>11.244</v>
       </c>
       <c r="D19">
-        <f>ABS(C19-B19)</f>
+        <f t="shared" si="0"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="E19" s="2">
@@ -9273,7 +11020,7 @@
         <v>76.269000000000005</v>
       </c>
       <c r="G19">
-        <f>ABS(F19-E19)</f>
+        <f t="shared" si="1"/>
         <v>0.43199999999998795</v>
       </c>
     </row>
@@ -9288,7 +11035,7 @@
         <v>13.282</v>
       </c>
       <c r="D20">
-        <f>ABS(C20-B20)</f>
+        <f t="shared" si="0"/>
         <v>0.16300000000000026</v>
       </c>
       <c r="E20" s="2">
@@ -9298,7 +11045,7 @@
         <v>86.52</v>
       </c>
       <c r="G20">
-        <f>ABS(F20-E20)</f>
+        <f t="shared" si="1"/>
         <v>1.2509999999999906</v>
       </c>
     </row>
@@ -9313,7 +11060,7 @@
         <v>15.153</v>
       </c>
       <c r="D21">
-        <f>ABS(C21-B21)</f>
+        <f t="shared" si="0"/>
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="E21" s="2">
@@ -9323,7 +11070,7 @@
         <v>92.811000000000007</v>
       </c>
       <c r="G21">
-        <f>ABS(F21-E21)</f>
+        <f t="shared" si="1"/>
         <v>1.2669999999999959</v>
       </c>
     </row>
@@ -9338,7 +11085,7 @@
         <v>16.954000000000001</v>
       </c>
       <c r="D22">
-        <f>ABS(C22-B22)</f>
+        <f t="shared" si="0"/>
         <v>3.3000000000001251E-2</v>
       </c>
       <c r="E22" s="2">
@@ -9348,7 +11095,7 @@
         <v>103.947</v>
       </c>
       <c r="G22">
-        <f>ABS(F22-E22)</f>
+        <f t="shared" si="1"/>
         <v>0.85500000000000398</v>
       </c>
     </row>
@@ -9363,7 +11110,7 @@
         <v>18.489000000000001</v>
       </c>
       <c r="D23">
-        <f>ABS(C23-B23)</f>
+        <f t="shared" si="0"/>
         <v>0.24299999999999855</v>
       </c>
       <c r="E23" s="2">
@@ -9373,7 +11120,7 @@
         <v>114.711</v>
       </c>
       <c r="G23">
-        <f>ABS(F23-E23)</f>
+        <f t="shared" si="1"/>
         <v>0.23799999999999955</v>
       </c>
     </row>
@@ -9388,7 +11135,7 @@
         <v>20.282</v>
       </c>
       <c r="D24">
-        <f>ABS(C24-B24)</f>
+        <f t="shared" si="0"/>
         <v>0.35800000000000054</v>
       </c>
       <c r="E24" s="2">
@@ -9398,7 +11145,7 @@
         <v>125.229</v>
       </c>
       <c r="G24">
-        <f>ABS(F24-E24)</f>
+        <f t="shared" si="1"/>
         <v>1.3119999999999976</v>
       </c>
     </row>
@@ -9435,101 +11182,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="45">
         <v>20</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="45">
         <v>2000000</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -9697,78 +11444,78 @@
       <c r="A3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="45">
         <v>20</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -11486,4 +13233,677 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B451884F-F8BD-4F01-B10F-A7E0BAE46247}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>A23/1000000</f>
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:D21" si="0">ROUND(B23/1000, 0)</f>
+        <v>128</v>
+      </c>
+      <c r="C2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A21" si="1">A24/1000000</f>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>423</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>501</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>566</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>643</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>686</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>742</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>812</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>891</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>271</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>964</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1003</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1061</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>339</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1134</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1212</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1287</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>402</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1365</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>426</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1411</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>449</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3000000</v>
+      </c>
+      <c r="B23">
+        <v>128108</v>
+      </c>
+      <c r="C23">
+        <v>26691</v>
+      </c>
+      <c r="D23">
+        <v>10424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6000000</v>
+      </c>
+      <c r="B24">
+        <v>209859</v>
+      </c>
+      <c r="C24">
+        <v>48949</v>
+      </c>
+      <c r="D24">
+        <v>17842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9000000</v>
+      </c>
+      <c r="B25">
+        <v>284329</v>
+      </c>
+      <c r="C25">
+        <v>71785</v>
+      </c>
+      <c r="D25">
+        <v>25883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12000000</v>
+      </c>
+      <c r="B26">
+        <v>356776</v>
+      </c>
+      <c r="C26">
+        <v>93098</v>
+      </c>
+      <c r="D26">
+        <v>33257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>15000000</v>
+      </c>
+      <c r="B27">
+        <v>422941</v>
+      </c>
+      <c r="C27">
+        <v>116807</v>
+      </c>
+      <c r="D27">
+        <v>40349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>18000000</v>
+      </c>
+      <c r="B28">
+        <v>500698</v>
+      </c>
+      <c r="C28">
+        <v>139044</v>
+      </c>
+      <c r="D28">
+        <v>48583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>21000000</v>
+      </c>
+      <c r="B29">
+        <v>566406</v>
+      </c>
+      <c r="C29">
+        <v>160875</v>
+      </c>
+      <c r="D29">
+        <v>55987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>24000000</v>
+      </c>
+      <c r="B30">
+        <v>642605</v>
+      </c>
+      <c r="C30">
+        <v>181225</v>
+      </c>
+      <c r="D30">
+        <v>62639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27000000</v>
+      </c>
+      <c r="B31">
+        <v>686193</v>
+      </c>
+      <c r="C31">
+        <v>204739</v>
+      </c>
+      <c r="D31">
+        <v>70711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30000000</v>
+      </c>
+      <c r="B32">
+        <v>741954</v>
+      </c>
+      <c r="C32">
+        <v>225674</v>
+      </c>
+      <c r="D32">
+        <v>77042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33000000</v>
+      </c>
+      <c r="B33">
+        <v>812220</v>
+      </c>
+      <c r="C33">
+        <v>248403</v>
+      </c>
+      <c r="D33">
+        <v>84666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>36000000</v>
+      </c>
+      <c r="B34">
+        <v>891112</v>
+      </c>
+      <c r="C34">
+        <v>271096</v>
+      </c>
+      <c r="D34">
+        <v>93059</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>39000000</v>
+      </c>
+      <c r="B35">
+        <v>963793</v>
+      </c>
+      <c r="C35">
+        <v>294279</v>
+      </c>
+      <c r="D35">
+        <v>100442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>42000000</v>
+      </c>
+      <c r="B36">
+        <v>1003222</v>
+      </c>
+      <c r="C36">
+        <v>315498</v>
+      </c>
+      <c r="D36">
+        <v>108916</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>45000000</v>
+      </c>
+      <c r="B37">
+        <v>1061405</v>
+      </c>
+      <c r="C37">
+        <v>338870</v>
+      </c>
+      <c r="D37">
+        <v>115025</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>48000000</v>
+      </c>
+      <c r="B38">
+        <v>1133993</v>
+      </c>
+      <c r="C38">
+        <v>358499</v>
+      </c>
+      <c r="D38">
+        <v>122539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>51000000</v>
+      </c>
+      <c r="B39">
+        <v>1212411</v>
+      </c>
+      <c r="C39">
+        <v>381269</v>
+      </c>
+      <c r="D39">
+        <v>130936</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>54000000</v>
+      </c>
+      <c r="B40">
+        <v>1287491</v>
+      </c>
+      <c r="C40">
+        <v>401986</v>
+      </c>
+      <c r="D40">
+        <v>137429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>57000000</v>
+      </c>
+      <c r="B41">
+        <v>1365236</v>
+      </c>
+      <c r="C41">
+        <v>425713</v>
+      </c>
+      <c r="D41">
+        <v>145062</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>60000000</v>
+      </c>
+      <c r="B42">
+        <v>1410681</v>
+      </c>
+      <c r="C42">
+        <v>448854</v>
+      </c>
+      <c r="D42">
+        <v>152902</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Laufzeit Benchmarks.xlsx
+++ b/Laufzeit Benchmarks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7770" activeTab="4" xr2:uid="{CF6F9929-A31F-489D-9572-F5B799929CF5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7770" xr2:uid="{CF6F9929-A31F-489D-9572-F5B799929CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
     <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
     <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
+    <sheet name="Tabelle7" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>Mit Daten kopieren</t>
   </si>
@@ -170,6 +171,18 @@
   <si>
     <t xml:space="preserve"> GPU mit kopieren</t>
   </si>
+  <si>
+    <t>Anfrage Radius</t>
+  </si>
+  <si>
+    <t>niedrigste gemessene Zeit bei 10 durchläufen</t>
+  </si>
+  <si>
+    <t>laser.00080.chkpt.density.mmpld</t>
+  </si>
+  <si>
+    <t>Anfrage Position zentriert</t>
+  </si>
 </sst>
 </file>
 
@@ -308,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -375,6 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5824,7 +5838,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$B$1</c:f>
+              <c:f>Tabelle5!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5920,7 +5934,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle5!$A$2:$A$21</c:f>
+              <c:f>Tabelle5!$A$16:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5989,7 +6003,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle5!$B$2:$B$21</c:f>
+              <c:f>Tabelle5!$B$16:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6068,7 +6082,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$C$1</c:f>
+              <c:f>Tabelle5!$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6208,7 +6222,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle5!$A$2:$A$21</c:f>
+              <c:f>Tabelle5!$A$16:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6277,7 +6291,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle5!$C$2:$C$21</c:f>
+              <c:f>Tabelle5!$C$16:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6356,7 +6370,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle5!$D$1</c:f>
+              <c:f>Tabelle5!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6518,7 +6532,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle5!$A$2:$A$21</c:f>
+              <c:f>Tabelle5!$A$16:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6587,7 +6601,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle5!$D$2:$D$21</c:f>
+              <c:f>Tabelle5!$D$16:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6999,6 +7013,844 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle7!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle7!$E$19:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle7!$F$19:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.96699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0629999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A14-4EF8-8B64-D9E603C259D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle7!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle7!$E$19:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle7!$G$19:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.244</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.385</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.944</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.081</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.407</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.9009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.311</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.374000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.379000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.951000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A14-4EF8-8B64-D9E603C259D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="643236136"/>
+        <c:axId val="643236792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="643236136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anfrage Radius</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643236792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="643236792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Laufzeit in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643236136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7199,6 +8051,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9747,6 +10639,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9951,6 +11359,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6272BB7C-5DA6-4559-8BD5-9F288248D974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80009</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26432EC-5079-4E35-B37F-9E3AD4DD7ADE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10270,7 +11719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDBFD6F-1AC2-4396-A59E-40555DBC7422}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -11173,7 +12622,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+      <selection activeCell="A3" sqref="A3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11433,8 +12882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946918F2-691D-476E-85B8-BB2E0F70E0AC}">
   <dimension ref="A2:E113"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13237,10 +14686,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B451884F-F8BD-4F01-B10F-A7E0BAE46247}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13248,661 +14697,1536 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="45">
+        <v>0</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>A23/1000000</f>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>A37/1000000</f>
         <v>3</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:D21" si="0">ROUND(B23/1000, 0)</f>
+      <c r="B16">
+        <f t="shared" ref="B16:D35" si="0">ROUND(B37/1000, 0)</f>
         <v>128</v>
       </c>
-      <c r="C2">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D2">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:A21" si="1">A24/1000000</f>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ref="A17:A35" si="1">A38/1000000</f>
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B17">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="C3">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D3">
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>284</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>357</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>423</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>501</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>566</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>161</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>643</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>181</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>686</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>742</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>226</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>812</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>891</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>271</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>964</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>294</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>1003</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>1061</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>339</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>1134</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>358</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1212</v>
+        <v>284</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>72</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1287</v>
+        <v>357</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>402</v>
+        <v>93</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1365</v>
+        <v>423</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>117</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1411</v>
+        <v>501</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>449</v>
+        <v>139</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>566</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3000000</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>128108</v>
+        <f t="shared" si="0"/>
+        <v>643</v>
       </c>
       <c r="C23">
-        <v>26691</v>
+        <f t="shared" si="0"/>
+        <v>181</v>
       </c>
       <c r="D23">
-        <v>10424</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6000000</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>209859</v>
+        <f t="shared" si="0"/>
+        <v>686</v>
       </c>
       <c r="C24">
-        <v>48949</v>
+        <f t="shared" si="0"/>
+        <v>205</v>
       </c>
       <c r="D24">
-        <v>17842</v>
+        <f t="shared" si="0"/>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>9000000</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>284329</v>
+        <f t="shared" si="0"/>
+        <v>742</v>
       </c>
       <c r="C25">
-        <v>71785</v>
+        <f t="shared" si="0"/>
+        <v>226</v>
       </c>
       <c r="D25">
-        <v>25883</v>
+        <f t="shared" si="0"/>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>12000000</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>356776</v>
+        <f t="shared" si="0"/>
+        <v>812</v>
       </c>
       <c r="C26">
-        <v>93098</v>
+        <f t="shared" si="0"/>
+        <v>248</v>
       </c>
       <c r="D26">
-        <v>33257</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>15000000</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>422941</v>
+        <f t="shared" si="0"/>
+        <v>891</v>
       </c>
       <c r="C27">
-        <v>116807</v>
+        <f t="shared" si="0"/>
+        <v>271</v>
       </c>
       <c r="D27">
-        <v>40349</v>
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>18000000</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="B28">
-        <v>500698</v>
+        <f t="shared" si="0"/>
+        <v>964</v>
       </c>
       <c r="C28">
-        <v>139044</v>
+        <f t="shared" si="0"/>
+        <v>294</v>
       </c>
       <c r="D28">
-        <v>48583</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>21000000</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="B29">
-        <v>566406</v>
+        <f t="shared" si="0"/>
+        <v>1003</v>
       </c>
       <c r="C29">
-        <v>160875</v>
+        <f t="shared" si="0"/>
+        <v>315</v>
       </c>
       <c r="D29">
-        <v>55987</v>
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>24000000</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="B30">
-        <v>642605</v>
+        <f t="shared" si="0"/>
+        <v>1061</v>
       </c>
       <c r="C30">
-        <v>181225</v>
+        <f t="shared" si="0"/>
+        <v>339</v>
       </c>
       <c r="D30">
-        <v>62639</v>
+        <f t="shared" si="0"/>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>27000000</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="B31">
-        <v>686193</v>
+        <f t="shared" si="0"/>
+        <v>1134</v>
       </c>
       <c r="C31">
-        <v>204739</v>
+        <f t="shared" si="0"/>
+        <v>358</v>
       </c>
       <c r="D31">
-        <v>70711</v>
+        <f t="shared" si="0"/>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30000000</v>
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="B32">
-        <v>741954</v>
+        <f t="shared" si="0"/>
+        <v>1212</v>
       </c>
       <c r="C32">
-        <v>225674</v>
+        <f t="shared" si="0"/>
+        <v>381</v>
       </c>
       <c r="D32">
-        <v>77042</v>
+        <f t="shared" si="0"/>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33000000</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="B33">
-        <v>812220</v>
+        <f t="shared" si="0"/>
+        <v>1287</v>
       </c>
       <c r="C33">
-        <v>248403</v>
+        <f t="shared" si="0"/>
+        <v>402</v>
       </c>
       <c r="D33">
-        <v>84666</v>
+        <f t="shared" si="0"/>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>36000000</v>
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
       <c r="B34">
-        <v>891112</v>
+        <f t="shared" si="0"/>
+        <v>1365</v>
       </c>
       <c r="C34">
-        <v>271096</v>
+        <f t="shared" si="0"/>
+        <v>426</v>
       </c>
       <c r="D34">
-        <v>93059</v>
+        <f t="shared" si="0"/>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>39000000</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="B35">
-        <v>963793</v>
+        <f t="shared" si="0"/>
+        <v>1411</v>
       </c>
       <c r="C35">
-        <v>294279</v>
+        <f t="shared" si="0"/>
+        <v>449</v>
       </c>
       <c r="D35">
-        <v>100442</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>42000000</v>
-      </c>
-      <c r="B36">
-        <v>1003222</v>
-      </c>
-      <c r="C36">
-        <v>315498</v>
-      </c>
-      <c r="D36">
-        <v>108916</v>
+        <f t="shared" si="0"/>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>45000000</v>
+        <v>3000000</v>
       </c>
       <c r="B37">
-        <v>1061405</v>
+        <v>128108</v>
       </c>
       <c r="C37">
-        <v>338870</v>
+        <v>26691</v>
       </c>
       <c r="D37">
-        <v>115025</v>
+        <v>10424</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>48000000</v>
+        <v>6000000</v>
       </c>
       <c r="B38">
-        <v>1133993</v>
+        <v>209859</v>
       </c>
       <c r="C38">
-        <v>358499</v>
+        <v>48949</v>
       </c>
       <c r="D38">
-        <v>122539</v>
+        <v>17842</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>51000000</v>
+        <v>9000000</v>
       </c>
       <c r="B39">
-        <v>1212411</v>
+        <v>284329</v>
       </c>
       <c r="C39">
-        <v>381269</v>
+        <v>71785</v>
       </c>
       <c r="D39">
-        <v>130936</v>
+        <v>25883</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>54000000</v>
+        <v>12000000</v>
       </c>
       <c r="B40">
-        <v>1287491</v>
+        <v>356776</v>
       </c>
       <c r="C40">
-        <v>401986</v>
+        <v>93098</v>
       </c>
       <c r="D40">
-        <v>137429</v>
+        <v>33257</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>57000000</v>
+        <v>15000000</v>
       </c>
       <c r="B41">
-        <v>1365236</v>
+        <v>422941</v>
       </c>
       <c r="C41">
-        <v>425713</v>
+        <v>116807</v>
       </c>
       <c r="D41">
-        <v>145062</v>
+        <v>40349</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>18000000</v>
+      </c>
+      <c r="B42">
+        <v>500698</v>
+      </c>
+      <c r="C42">
+        <v>139044</v>
+      </c>
+      <c r="D42">
+        <v>48583</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>21000000</v>
+      </c>
+      <c r="B43">
+        <v>566406</v>
+      </c>
+      <c r="C43">
+        <v>160875</v>
+      </c>
+      <c r="D43">
+        <v>55987</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>24000000</v>
+      </c>
+      <c r="B44">
+        <v>642605</v>
+      </c>
+      <c r="C44">
+        <v>181225</v>
+      </c>
+      <c r="D44">
+        <v>62639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>27000000</v>
+      </c>
+      <c r="B45">
+        <v>686193</v>
+      </c>
+      <c r="C45">
+        <v>204739</v>
+      </c>
+      <c r="D45">
+        <v>70711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>30000000</v>
+      </c>
+      <c r="B46">
+        <v>741954</v>
+      </c>
+      <c r="C46">
+        <v>225674</v>
+      </c>
+      <c r="D46">
+        <v>77042</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>33000000</v>
+      </c>
+      <c r="B47">
+        <v>812220</v>
+      </c>
+      <c r="C47">
+        <v>248403</v>
+      </c>
+      <c r="D47">
+        <v>84666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>36000000</v>
+      </c>
+      <c r="B48">
+        <v>891112</v>
+      </c>
+      <c r="C48">
+        <v>271096</v>
+      </c>
+      <c r="D48">
+        <v>93059</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>39000000</v>
+      </c>
+      <c r="B49">
+        <v>963793</v>
+      </c>
+      <c r="C49">
+        <v>294279</v>
+      </c>
+      <c r="D49">
+        <v>100442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>42000000</v>
+      </c>
+      <c r="B50">
+        <v>1003222</v>
+      </c>
+      <c r="C50">
+        <v>315498</v>
+      </c>
+      <c r="D50">
+        <v>108916</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>45000000</v>
+      </c>
+      <c r="B51">
+        <v>1061405</v>
+      </c>
+      <c r="C51">
+        <v>338870</v>
+      </c>
+      <c r="D51">
+        <v>115025</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>48000000</v>
+      </c>
+      <c r="B52">
+        <v>1133993</v>
+      </c>
+      <c r="C52">
+        <v>358499</v>
+      </c>
+      <c r="D52">
+        <v>122539</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51000000</v>
+      </c>
+      <c r="B53">
+        <v>1212411</v>
+      </c>
+      <c r="C53">
+        <v>381269</v>
+      </c>
+      <c r="D53">
+        <v>130936</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54000000</v>
+      </c>
+      <c r="B54">
+        <v>1287491</v>
+      </c>
+      <c r="C54">
+        <v>401986</v>
+      </c>
+      <c r="D54">
+        <v>137429</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>57000000</v>
+      </c>
+      <c r="B55">
+        <v>1365236</v>
+      </c>
+      <c r="C55">
+        <v>425713</v>
+      </c>
+      <c r="D55">
+        <v>145062</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>60000000</v>
       </c>
+      <c r="B56">
+        <v>1410681</v>
+      </c>
+      <c r="C56">
+        <v>448854</v>
+      </c>
+      <c r="D56">
+        <v>152902</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F077C225-171D-430F-9D38-9B5D3C2625F3}">
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="45">
+        <v>200</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="45">
+        <v>562500</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>413</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <f>B19/1000</f>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G19">
+        <f>C19/1000</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>502</v>
+      </c>
+      <c r="C20">
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <f>B20/1000</f>
+        <v>0.502</v>
+      </c>
+      <c r="G20">
+        <f>C20/1000</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>394</v>
+      </c>
+      <c r="C21">
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>58</v>
+      </c>
+      <c r="F21">
+        <f>B21/1000</f>
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G21">
+        <f>C21/1000</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>78</v>
+      </c>
+      <c r="B22">
+        <v>400</v>
+      </c>
+      <c r="C22">
+        <v>153</v>
+      </c>
+      <c r="E22">
+        <v>78</v>
+      </c>
+      <c r="F22">
+        <f>B22/1000</f>
+        <v>0.4</v>
+      </c>
+      <c r="G22">
+        <f>C22/1000</f>
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>97</v>
+      </c>
+      <c r="B23">
+        <v>479</v>
+      </c>
+      <c r="C23">
+        <v>266</v>
+      </c>
+      <c r="E23">
+        <v>97</v>
+      </c>
+      <c r="F23">
+        <f>B23/1000</f>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G23">
+        <f>C23/1000</f>
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>117</v>
+      </c>
+      <c r="B24">
+        <v>441</v>
+      </c>
+      <c r="C24">
+        <v>441</v>
+      </c>
+      <c r="E24">
+        <v>117</v>
+      </c>
+      <c r="F24">
+        <f>B24/1000</f>
+        <v>0.441</v>
+      </c>
+      <c r="G24">
+        <f>C24/1000</f>
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>136</v>
+      </c>
+      <c r="B25">
+        <v>490</v>
+      </c>
+      <c r="C25">
+        <v>700</v>
+      </c>
+      <c r="E25">
+        <v>136</v>
+      </c>
+      <c r="F25">
+        <f>B25/1000</f>
+        <v>0.49</v>
+      </c>
+      <c r="G25">
+        <f>C25/1000</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>156</v>
+      </c>
+      <c r="B26">
+        <v>452</v>
+      </c>
+      <c r="C26">
+        <v>940</v>
+      </c>
+      <c r="E26">
+        <v>156</v>
+      </c>
+      <c r="F26">
+        <f>B26/1000</f>
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="G26">
+        <f>C26/1000</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>175</v>
+      </c>
+      <c r="B27">
+        <v>430</v>
+      </c>
+      <c r="C27">
+        <v>1061</v>
+      </c>
+      <c r="E27">
+        <v>175</v>
+      </c>
+      <c r="F27">
+        <f>B27/1000</f>
+        <v>0.43</v>
+      </c>
+      <c r="G27">
+        <f>C27/1000</f>
+        <v>1.0609999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>195</v>
+      </c>
+      <c r="B28">
+        <v>441</v>
+      </c>
+      <c r="C28">
+        <v>1244</v>
+      </c>
+      <c r="E28">
+        <v>195</v>
+      </c>
+      <c r="F28">
+        <f>B28/1000</f>
+        <v>0.441</v>
+      </c>
+      <c r="G28">
+        <f>C28/1000</f>
+        <v>1.244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>214</v>
+      </c>
+      <c r="B29">
+        <v>465</v>
+      </c>
+      <c r="C29">
+        <v>1385</v>
+      </c>
+      <c r="E29">
+        <v>214</v>
+      </c>
+      <c r="F29">
+        <f>B29/1000</f>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G29">
+        <f>C29/1000</f>
+        <v>1.385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>234</v>
+      </c>
+      <c r="B30">
+        <v>466</v>
+      </c>
+      <c r="C30">
+        <v>1584</v>
+      </c>
+      <c r="E30">
+        <v>234</v>
+      </c>
+      <c r="F30">
+        <f>B30/1000</f>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="G30">
+        <f>C30/1000</f>
+        <v>1.5840000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>253</v>
+      </c>
+      <c r="B31">
+        <v>448</v>
+      </c>
+      <c r="C31">
+        <v>1771</v>
+      </c>
+      <c r="E31">
+        <v>253</v>
+      </c>
+      <c r="F31">
+        <f>B31/1000</f>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G31">
+        <f>C31/1000</f>
+        <v>1.7709999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>273</v>
+      </c>
+      <c r="B32">
+        <v>479</v>
+      </c>
+      <c r="C32">
+        <v>1944</v>
+      </c>
+      <c r="E32">
+        <v>273</v>
+      </c>
+      <c r="F32">
+        <f>B32/1000</f>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G32">
+        <f>C32/1000</f>
+        <v>1.944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>292</v>
+      </c>
+      <c r="B33">
+        <v>476</v>
+      </c>
+      <c r="C33">
+        <v>2081</v>
+      </c>
+      <c r="E33">
+        <v>292</v>
+      </c>
+      <c r="F33">
+        <f>B33/1000</f>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G33">
+        <f>C33/1000</f>
+        <v>2.081</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>312</v>
+      </c>
+      <c r="B34">
+        <v>477</v>
+      </c>
+      <c r="C34">
+        <v>2337</v>
+      </c>
+      <c r="E34">
+        <v>312</v>
+      </c>
+      <c r="F34">
+        <f>B34/1000</f>
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="G34">
+        <f>C34/1000</f>
+        <v>2.3370000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>331</v>
+      </c>
+      <c r="B35">
+        <v>507</v>
+      </c>
+      <c r="C35">
+        <v>2497</v>
+      </c>
+      <c r="E35">
+        <v>331</v>
+      </c>
+      <c r="F35">
+        <f>B35/1000</f>
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="G35">
+        <f>C35/1000</f>
+        <v>2.4969999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>351</v>
+      </c>
+      <c r="B36">
+        <v>491</v>
+      </c>
+      <c r="C36">
+        <v>2798</v>
+      </c>
+      <c r="E36">
+        <v>351</v>
+      </c>
+      <c r="F36">
+        <f>B36/1000</f>
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="G36">
+        <f>C36/1000</f>
+        <v>2.798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>370</v>
+      </c>
+      <c r="B37">
+        <v>524</v>
+      </c>
+      <c r="C37">
+        <v>3071</v>
+      </c>
+      <c r="E37">
+        <v>370</v>
+      </c>
+      <c r="F37">
+        <f>B37/1000</f>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="G37">
+        <f>C37/1000</f>
+        <v>3.0710000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>390</v>
+      </c>
+      <c r="B38">
+        <v>556</v>
+      </c>
+      <c r="C38">
+        <v>3407</v>
+      </c>
+      <c r="E38">
+        <v>390</v>
+      </c>
+      <c r="F38">
+        <f>B38/1000</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G38">
+        <f>C38/1000</f>
+        <v>3.407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>409</v>
+      </c>
+      <c r="B39">
+        <v>555</v>
+      </c>
+      <c r="C39">
+        <v>3729</v>
+      </c>
+      <c r="E39">
+        <v>409</v>
+      </c>
+      <c r="F39">
+        <f>B39/1000</f>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G39">
+        <f>C39/1000</f>
+        <v>3.7290000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>429</v>
+      </c>
+      <c r="B40">
+        <v>548</v>
+      </c>
+      <c r="C40">
+        <v>4232</v>
+      </c>
+      <c r="E40">
+        <v>429</v>
+      </c>
+      <c r="F40">
+        <f>B40/1000</f>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G40">
+        <f>C40/1000</f>
+        <v>4.2320000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>448</v>
+      </c>
+      <c r="B41">
+        <v>736</v>
+      </c>
+      <c r="C41">
+        <v>6250</v>
+      </c>
+      <c r="E41">
+        <v>448</v>
+      </c>
+      <c r="F41">
+        <f>B41/1000</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G41">
+        <f>C41/1000</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>468</v>
+      </c>
       <c r="B42">
-        <v>1410681</v>
+        <v>785</v>
       </c>
       <c r="C42">
-        <v>448854</v>
-      </c>
-      <c r="D42">
-        <v>152902</v>
+        <v>8901</v>
+      </c>
+      <c r="E42">
+        <v>468</v>
+      </c>
+      <c r="F42">
+        <f>B42/1000</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="G42">
+        <f>C42/1000</f>
+        <v>8.9009999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>487</v>
+      </c>
+      <c r="B43">
+        <v>858</v>
+      </c>
+      <c r="C43">
+        <v>11311</v>
+      </c>
+      <c r="E43">
+        <v>487</v>
+      </c>
+      <c r="F43">
+        <f>B43/1000</f>
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G43">
+        <f>C43/1000</f>
+        <v>11.311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>507</v>
+      </c>
+      <c r="B44">
+        <v>906</v>
+      </c>
+      <c r="C44">
+        <v>13111</v>
+      </c>
+      <c r="E44">
+        <v>507</v>
+      </c>
+      <c r="F44">
+        <f>B44/1000</f>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="G44">
+        <f>C44/1000</f>
+        <v>13.111000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>526</v>
+      </c>
+      <c r="B45">
+        <v>934</v>
+      </c>
+      <c r="C45">
+        <v>15374</v>
+      </c>
+      <c r="E45">
+        <v>526</v>
+      </c>
+      <c r="F45">
+        <f>B45/1000</f>
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G45">
+        <f>C45/1000</f>
+        <v>15.374000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>546</v>
+      </c>
+      <c r="B46">
+        <v>967</v>
+      </c>
+      <c r="C46">
+        <v>15688</v>
+      </c>
+      <c r="E46">
+        <v>546</v>
+      </c>
+      <c r="F46">
+        <f>B46/1000</f>
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="G46">
+        <f>C46/1000</f>
+        <v>15.688000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>565</v>
+      </c>
+      <c r="B47">
+        <v>980</v>
+      </c>
+      <c r="C47">
+        <v>17379</v>
+      </c>
+      <c r="E47">
+        <v>565</v>
+      </c>
+      <c r="F47">
+        <f>B47/1000</f>
+        <v>0.98</v>
+      </c>
+      <c r="G47">
+        <f>C47/1000</f>
+        <v>17.379000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>585</v>
+      </c>
+      <c r="B48">
+        <v>1063</v>
+      </c>
+      <c r="C48">
+        <v>17951</v>
+      </c>
+      <c r="E48">
+        <v>585</v>
+      </c>
+      <c r="F48">
+        <f>B48/1000</f>
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="G48">
+        <f>C48/1000</f>
+        <v>17.951000000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Laufzeit Benchmarks.xlsx
+++ b/Laufzeit Benchmarks.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HashGrid Git\CUDA-Project-Hash-Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmeye\Documents\CUDA-Project-Hash-Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7770" xr2:uid="{CF6F9929-A31F-489D-9572-F5B799929CF5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7770" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,12 @@
     <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
     <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
     <sheet name="Tabelle7" sheetId="7" r:id="rId6"/>
+    <sheet name="Tabelle6" sheetId="8" r:id="rId7"/>
+    <sheet name="Tabelle8" sheetId="9" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="55">
   <si>
     <t>Mit Daten kopieren</t>
   </si>
@@ -183,12 +188,31 @@
   <si>
     <t>Anfrage Position zentriert</t>
   </si>
+  <si>
+    <t>Kopieren</t>
+  </si>
+  <si>
+    <t>Speicher allok</t>
+  </si>
+  <si>
+    <t>Kernel</t>
+  </si>
+  <si>
+    <t>Prozente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,10 +342,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -352,7 +377,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -367,6 +391,10 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,9 +416,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -616,7 +644,7 @@
             <c:numRef>
               <c:f>Tabelle1!$M$6:$M$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.6640000000000001</c:v>
@@ -1122,6 +1150,1988 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$T$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kopieren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5FC468B7-C281-454C-AFC2-05BC311EF1AA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F353B8C4-C082-4314-9BA2-9E9900944EF7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8DDA4501-3891-4C88-8451-E4CF37A20CF2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A873E254-B027-4371-83EA-649730D3D334}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C400DAC3-1B7E-4489-A475-2603D8B4B8D2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9DF35786-623E-477F-B0E6-891DC2E591F7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{665FE862-4915-4675-95FA-E1920C956BF3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{659C3608-5A3A-4EF5-B034-306F1AB30A2E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{978A11F1-30B8-4BCC-9395-03CD212AB79F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{87A18432-9534-4E28-961A-55914F64D002}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$S$6:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$T$6:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6359999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.257999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.158999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.812000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Tabelle1!$W$6:$W$15</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>31%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>42%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>48%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>54%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>56%</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>55%</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>57%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>60%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>59%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>61%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-025D-470B-BB9D-2F4943A01B5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$U$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speicher allok</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D979B3A2-3CEA-4EFE-8E10-143272E80B04}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3AB86E51-749E-41E5-90F7-9F3B8AC26EAB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EE224606-6F2F-4D02-B18A-DAE0C94C9BC6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{78ACE16A-7946-4058-A39C-90E55056D069}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{40CDAB6E-433C-47D9-92C3-9E0C518CFB3E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6154B22D-9792-480E-BCCC-A0F8A3FF97B2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6B85EDA8-FEE7-48F8-9BB0-7AA54DDFF76D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D0BDD80A-0C56-4515-A95B-DCF059DC1DD7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{431E56EE-0103-4676-8FB8-443CA95AB8A4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1F97BE22-6F40-4F59-82AF-C47313C6DACD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$S$6:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$U$6:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8149999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2970000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6859999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Tabelle1!$X$6:$X$15</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>31%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>22%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>19%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>17%</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>17%</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>15%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>13%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>14%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-025D-470B-BB9D-2F4943A01B5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$V$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kernel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8F5613D1-E3C4-4A19-855C-30908F205E27}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{27771E91-7623-48C1-9CFF-8D980391758E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8EF34F86-6168-4D68-8FD4-C88C039BDD7E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6A848EEB-E836-47E8-85CC-E1AB950B1045}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{27031B3B-E2A3-4996-8536-BFE306E7EEEC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9CC63CD3-EB41-4CD0-95D3-30AA0B41FBB9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9C917773-2E72-4933-BD37-95CA7AD985F7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9A50D795-38D4-451C-A33C-C0E7FA7FD5D3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{31CED3BC-DABE-4E70-9D9C-5E09E0AA852F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B5BE96FC-F5E6-4839-8038-6ED98CA11134}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-025D-470B-BB9D-2F4943A01B5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$S$6:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$V$6:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3369999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Tabelle1!$Y$6:$Y$15</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>38%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>33%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>27%</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>28%</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>28%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>27%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>27%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>26%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-025D-470B-BB9D-2F4943A01B5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="535622224"/>
+        <c:axId val="535625504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="535622224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Partikelanzahl</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535625504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="535625504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Laufzeit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535622224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2197,7 +4207,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2791,7 +4801,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5783,7 +7793,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -7013,7 +9023,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -7526,7 +9536,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7851,6 +9860,1261 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]benchmark!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]benchmark!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB14-4A6F-9B30-2665D9DCB067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]benchmark!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]benchmark!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1437</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1474</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB14-4A6F-9B30-2665D9DCB067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="550281752"/>
+        <c:axId val="550280112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="550281752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550280112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="550280112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550281752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]benchmark!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]benchmark!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]benchmark!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA0C-4CF7-9A0C-1EC1A5D1C7D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]benchmark!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]benchmark!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]benchmark!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1437</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1474</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA0C-4CF7-9A0C-1EC1A5D1C7D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="393643736"/>
+        <c:axId val="393642752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="393643736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393642752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="393642752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393643736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8091,6 +11355,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8608,7 +11992,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8716,11 +12100,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8731,11 +12110,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8767,9 +12141,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8825,22 +12196,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8945,8 +12317,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9078,19 +12450,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9124,7 +12497,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9232,6 +12605,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9242,6 +12620,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9273,6 +12656,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9627,7 +13013,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9654,8 +13040,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9756,6 +13142,509 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10142,7 +14031,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10658,7 +14547,1039 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11207,6 +16128,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>668337</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F062F1FC-3E0D-46D5-A5D7-C1289A94D293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11418,6 +16375,630 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358774</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E41C69-F6F9-4818-B64D-E6A1B83249C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D3DAF3-6834-4BE6-834A-F8BE13EFE10E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="benchmark"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v xml:space="preserve"> GPU</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v xml:space="preserve"> CPU</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v xml:space="preserve"> GPU</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v xml:space="preserve"> CPU</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>294</v>
+          </cell>
+          <cell r="C2">
+            <v>78</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>294</v>
+          </cell>
+          <cell r="G2">
+            <v>78</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>320</v>
+          </cell>
+          <cell r="C3">
+            <v>92</v>
+          </cell>
+          <cell r="E3">
+            <v>17</v>
+          </cell>
+          <cell r="F3">
+            <v>320</v>
+          </cell>
+          <cell r="G3">
+            <v>92</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>338</v>
+          </cell>
+          <cell r="C4">
+            <v>103</v>
+          </cell>
+          <cell r="E4">
+            <v>35</v>
+          </cell>
+          <cell r="F4">
+            <v>338</v>
+          </cell>
+          <cell r="G4">
+            <v>103</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>346</v>
+          </cell>
+          <cell r="C5">
+            <v>100</v>
+          </cell>
+          <cell r="E5">
+            <v>52</v>
+          </cell>
+          <cell r="F5">
+            <v>346</v>
+          </cell>
+          <cell r="G5">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>341</v>
+          </cell>
+          <cell r="C6">
+            <v>97</v>
+          </cell>
+          <cell r="E6">
+            <v>69</v>
+          </cell>
+          <cell r="F6">
+            <v>341</v>
+          </cell>
+          <cell r="G6">
+            <v>97</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>330</v>
+          </cell>
+          <cell r="C7">
+            <v>95</v>
+          </cell>
+          <cell r="E7">
+            <v>87</v>
+          </cell>
+          <cell r="F7">
+            <v>330</v>
+          </cell>
+          <cell r="G7">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>290</v>
+          </cell>
+          <cell r="C8">
+            <v>93</v>
+          </cell>
+          <cell r="E8">
+            <v>104</v>
+          </cell>
+          <cell r="F8">
+            <v>290</v>
+          </cell>
+          <cell r="G8">
+            <v>93</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>299</v>
+          </cell>
+          <cell r="C9">
+            <v>100</v>
+          </cell>
+          <cell r="E9">
+            <v>121</v>
+          </cell>
+          <cell r="F9">
+            <v>299</v>
+          </cell>
+          <cell r="G9">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>344</v>
+          </cell>
+          <cell r="C10">
+            <v>109</v>
+          </cell>
+          <cell r="E10">
+            <v>139</v>
+          </cell>
+          <cell r="F10">
+            <v>344</v>
+          </cell>
+          <cell r="G10">
+            <v>109</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>293</v>
+          </cell>
+          <cell r="C11">
+            <v>102</v>
+          </cell>
+          <cell r="E11">
+            <v>156</v>
+          </cell>
+          <cell r="F11">
+            <v>293</v>
+          </cell>
+          <cell r="G11">
+            <v>102</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>332</v>
+          </cell>
+          <cell r="C12">
+            <v>109</v>
+          </cell>
+          <cell r="E12">
+            <v>173</v>
+          </cell>
+          <cell r="F12">
+            <v>332</v>
+          </cell>
+          <cell r="G12">
+            <v>109</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>345</v>
+          </cell>
+          <cell r="C13">
+            <v>99</v>
+          </cell>
+          <cell r="E13">
+            <v>190</v>
+          </cell>
+          <cell r="F13">
+            <v>345</v>
+          </cell>
+          <cell r="G13">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>330</v>
+          </cell>
+          <cell r="C14">
+            <v>100</v>
+          </cell>
+          <cell r="E14">
+            <v>208</v>
+          </cell>
+          <cell r="F14">
+            <v>330</v>
+          </cell>
+          <cell r="G14">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>335</v>
+          </cell>
+          <cell r="C15">
+            <v>103</v>
+          </cell>
+          <cell r="E15">
+            <v>225</v>
+          </cell>
+          <cell r="F15">
+            <v>335</v>
+          </cell>
+          <cell r="G15">
+            <v>103</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>332</v>
+          </cell>
+          <cell r="C16">
+            <v>99</v>
+          </cell>
+          <cell r="E16">
+            <v>243</v>
+          </cell>
+          <cell r="F16">
+            <v>332</v>
+          </cell>
+          <cell r="G16">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>346</v>
+          </cell>
+          <cell r="C17">
+            <v>101</v>
+          </cell>
+          <cell r="E17">
+            <v>260</v>
+          </cell>
+          <cell r="F17">
+            <v>346</v>
+          </cell>
+          <cell r="G17">
+            <v>101</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>344</v>
+          </cell>
+          <cell r="C18">
+            <v>102</v>
+          </cell>
+          <cell r="E18">
+            <v>277</v>
+          </cell>
+          <cell r="F18">
+            <v>344</v>
+          </cell>
+          <cell r="G18">
+            <v>102</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>343</v>
+          </cell>
+          <cell r="C19">
+            <v>108</v>
+          </cell>
+          <cell r="E19">
+            <v>295</v>
+          </cell>
+          <cell r="F19">
+            <v>343</v>
+          </cell>
+          <cell r="G19">
+            <v>108</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>340</v>
+          </cell>
+          <cell r="C20">
+            <v>108</v>
+          </cell>
+          <cell r="E20">
+            <v>312</v>
+          </cell>
+          <cell r="F20">
+            <v>340</v>
+          </cell>
+          <cell r="G20">
+            <v>108</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>340</v>
+          </cell>
+          <cell r="C21">
+            <v>112</v>
+          </cell>
+          <cell r="E21">
+            <v>329</v>
+          </cell>
+          <cell r="F21">
+            <v>340</v>
+          </cell>
+          <cell r="G21">
+            <v>112</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>310</v>
+          </cell>
+          <cell r="C22">
+            <v>113</v>
+          </cell>
+          <cell r="E22">
+            <v>347</v>
+          </cell>
+          <cell r="F22">
+            <v>310</v>
+          </cell>
+          <cell r="G22">
+            <v>113</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>342</v>
+          </cell>
+          <cell r="C23">
+            <v>111</v>
+          </cell>
+          <cell r="E23">
+            <v>364</v>
+          </cell>
+          <cell r="F23">
+            <v>342</v>
+          </cell>
+          <cell r="G23">
+            <v>111</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>346</v>
+          </cell>
+          <cell r="C24">
+            <v>114</v>
+          </cell>
+          <cell r="E24">
+            <v>381</v>
+          </cell>
+          <cell r="F24">
+            <v>346</v>
+          </cell>
+          <cell r="G24">
+            <v>114</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>331</v>
+          </cell>
+          <cell r="C25">
+            <v>164</v>
+          </cell>
+          <cell r="E25">
+            <v>398</v>
+          </cell>
+          <cell r="F25">
+            <v>331</v>
+          </cell>
+          <cell r="G25">
+            <v>164</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>388</v>
+          </cell>
+          <cell r="C26">
+            <v>547</v>
+          </cell>
+          <cell r="E26">
+            <v>416</v>
+          </cell>
+          <cell r="F26">
+            <v>388</v>
+          </cell>
+          <cell r="G26">
+            <v>547</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>454</v>
+          </cell>
+          <cell r="C27">
+            <v>1028</v>
+          </cell>
+          <cell r="E27">
+            <v>433</v>
+          </cell>
+          <cell r="F27">
+            <v>454</v>
+          </cell>
+          <cell r="G27">
+            <v>1028</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>508</v>
+          </cell>
+          <cell r="C28">
+            <v>1437</v>
+          </cell>
+          <cell r="E28">
+            <v>450</v>
+          </cell>
+          <cell r="F28">
+            <v>508</v>
+          </cell>
+          <cell r="G28">
+            <v>1437</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>524</v>
+          </cell>
+          <cell r="C29">
+            <v>1474</v>
+          </cell>
+          <cell r="E29">
+            <v>468</v>
+          </cell>
+          <cell r="F29">
+            <v>524</v>
+          </cell>
+          <cell r="G29">
+            <v>1474</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>476</v>
+          </cell>
+          <cell r="C30">
+            <v>1213</v>
+          </cell>
+          <cell r="E30">
+            <v>485</v>
+          </cell>
+          <cell r="F30">
+            <v>476</v>
+          </cell>
+          <cell r="G30">
+            <v>1213</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>391</v>
+          </cell>
+          <cell r="C31">
+            <v>493</v>
+          </cell>
+          <cell r="E31">
+            <v>503</v>
+          </cell>
+          <cell r="F31">
+            <v>391</v>
+          </cell>
+          <cell r="G31">
+            <v>493</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11716,52 +17297,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDBFD6F-1AC2-4396-A59E-40555DBC7422}">
-  <dimension ref="A1:R22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="L6" zoomScale="92" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="48">
         <v>20</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
@@ -11774,22 +17355,25 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="33"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q4" s="31"/>
+      <c r="R4" s="32"/>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
       <c r="H5" s="22" t="s">
         <v>2</v>
       </c>
@@ -11810,26 +17394,47 @@
         <v>4</v>
       </c>
       <c r="O5" s="13"/>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
       <c r="H6" s="25">
         <v>200000</v>
       </c>
@@ -11844,7 +17449,7 @@
       <c r="L6" s="14">
         <v>200000</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="15">
         <v>2.6640000000000001</v>
       </c>
       <c r="N6" s="15">
@@ -11852,27 +17457,57 @@
         <v>0.67399999999999993</v>
       </c>
       <c r="O6" s="13"/>
-      <c r="P6" s="37">
+      <c r="P6" s="36">
         <v>200000</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="37">
         <v>1.47</v>
       </c>
-      <c r="R6" s="39">
+      <c r="R6" s="38">
         <f>Q7-Q6</f>
         <v>0.44700000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="25">
+        <v>200000</v>
+      </c>
+      <c r="T6" s="37">
+        <f>I6-M6</f>
+        <v>1.2159999999999997</v>
+      </c>
+      <c r="U6" s="37">
+        <f>M6-Q6</f>
+        <v>1.1940000000000002</v>
+      </c>
+      <c r="V6" s="37">
+        <v>1.47</v>
+      </c>
+      <c r="W6" s="45">
+        <f>T6/(T6+U6+V6)</f>
+        <v>0.31340206185567004</v>
+      </c>
+      <c r="X6" s="45">
+        <f>U6/(T6+U6+V6)</f>
+        <v>0.30773195876288667</v>
+      </c>
+      <c r="Y6" s="45">
+        <f>V6/(T6+U6+V6)</f>
+        <v>0.37886597938144329</v>
+      </c>
+      <c r="Z6" s="47">
+        <f>W6+X6+Y6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
       <c r="H7" s="25">
         <v>400000</v>
       </c>
@@ -11887,7 +17522,7 @@
       <c r="L7" s="14">
         <v>400000</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="15">
         <v>3.3380000000000001</v>
       </c>
       <c r="N7" s="15">
@@ -11895,27 +17530,57 @@
         <v>0.57699999999999996</v>
       </c>
       <c r="O7" s="13"/>
-      <c r="P7" s="37">
+      <c r="P7" s="36">
         <v>400000</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7" s="37">
         <v>1.917</v>
       </c>
-      <c r="R7" s="39">
+      <c r="R7" s="38">
         <f t="shared" ref="R7:R14" si="2">Q8-Q7</f>
         <v>0.32499999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="25">
+        <v>400000</v>
+      </c>
+      <c r="T7" s="37">
+        <f t="shared" ref="T7:T15" si="3">I7-M7</f>
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="U7" s="37">
+        <f t="shared" ref="U7:U15" si="4">M7-Q7</f>
+        <v>1.421</v>
+      </c>
+      <c r="V7" s="37">
+        <v>1.917</v>
+      </c>
+      <c r="W7" s="45">
+        <f t="shared" ref="W7:W15" si="5">T7/(T7+U7+V7)</f>
+        <v>0.42249134948096889</v>
+      </c>
+      <c r="X7" s="45">
+        <f t="shared" ref="X7:X15" si="6">U7/(T7+U7+V7)</f>
+        <v>0.2458477508650519</v>
+      </c>
+      <c r="Y7" s="45">
+        <f t="shared" ref="Y7:Y15" si="7">V7/(T7+U7+V7)</f>
+        <v>0.33166089965397921</v>
+      </c>
+      <c r="Z7" s="47">
+        <f t="shared" ref="Z7:Z15" si="8">W7+X7+Y7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
       <c r="H8" s="25">
         <v>600000</v>
       </c>
@@ -11930,7 +17595,7 @@
       <c r="L8" s="14">
         <v>600000</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="15">
         <v>3.915</v>
       </c>
       <c r="N8" s="15">
@@ -11938,27 +17603,57 @@
         <v>0.51199999999999957</v>
       </c>
       <c r="O8" s="13"/>
-      <c r="P8" s="37">
+      <c r="P8" s="36">
         <v>600000</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="37">
         <v>2.242</v>
       </c>
-      <c r="R8" s="39">
+      <c r="R8" s="38">
         <f t="shared" si="2"/>
         <v>0.37000000000000011</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="S8" s="25">
+        <v>600000</v>
+      </c>
+      <c r="T8" s="37">
+        <f t="shared" si="3"/>
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="U8" s="37">
+        <f t="shared" si="4"/>
+        <v>1.673</v>
+      </c>
+      <c r="V8" s="37">
+        <v>2.242</v>
+      </c>
+      <c r="W8" s="45">
+        <f t="shared" si="5"/>
+        <v>0.48418972332015808</v>
+      </c>
+      <c r="X8" s="45">
+        <f t="shared" si="6"/>
+        <v>0.22042160737812913</v>
+      </c>
+      <c r="Y8" s="45">
+        <f t="shared" si="7"/>
+        <v>0.29538866930171276</v>
+      </c>
+      <c r="Z8" s="47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
       <c r="H9" s="25">
         <v>800000</v>
       </c>
@@ -11973,7 +17668,7 @@
       <c r="L9" s="14">
         <v>800000</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="15">
         <v>4.4269999999999996</v>
       </c>
       <c r="N9" s="15">
@@ -11981,18 +17676,48 @@
         <v>0.60300000000000065</v>
       </c>
       <c r="O9" s="13"/>
-      <c r="P9" s="37">
+      <c r="P9" s="36">
         <v>800000</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="37">
         <v>2.6120000000000001</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="38">
         <f t="shared" si="2"/>
         <v>0.44899999999999984</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="25">
+        <v>800000</v>
+      </c>
+      <c r="T9" s="37">
+        <f t="shared" si="3"/>
+        <v>5.1129999999999995</v>
+      </c>
+      <c r="U9" s="37">
+        <f t="shared" si="4"/>
+        <v>1.8149999999999995</v>
+      </c>
+      <c r="V9" s="37">
+        <v>2.6120000000000001</v>
+      </c>
+      <c r="W9" s="45">
+        <f t="shared" si="5"/>
+        <v>0.53595387840670861</v>
+      </c>
+      <c r="X9" s="45">
+        <f>U9/(T9+U9+V9)</f>
+        <v>0.19025157232704398</v>
+      </c>
+      <c r="Y9" s="45">
+        <f t="shared" si="7"/>
+        <v>0.27379454926624741</v>
+      </c>
+      <c r="Z9" s="47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H10" s="25">
         <v>1000000</v>
       </c>
@@ -12007,7 +17732,7 @@
       <c r="L10" s="14">
         <v>1000000</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="15">
         <v>5.03</v>
       </c>
       <c r="N10" s="15">
@@ -12015,18 +17740,48 @@
         <v>0.97499999999999964</v>
       </c>
       <c r="O10" s="13"/>
-      <c r="P10" s="37">
+      <c r="P10" s="36">
         <v>1000000</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="37">
         <v>3.0609999999999999</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="38">
         <f t="shared" si="2"/>
         <v>0.7330000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="25">
+        <v>1000000</v>
+      </c>
+      <c r="T10" s="37">
+        <f t="shared" si="3"/>
+        <v>6.37</v>
+      </c>
+      <c r="U10" s="37">
+        <f t="shared" si="4"/>
+        <v>1.9690000000000003</v>
+      </c>
+      <c r="V10" s="37">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="W10" s="45">
+        <f t="shared" si="5"/>
+        <v>0.55877192982456136</v>
+      </c>
+      <c r="X10" s="45">
+        <f t="shared" si="6"/>
+        <v>0.17271929824561405</v>
+      </c>
+      <c r="Y10" s="45">
+        <f t="shared" si="7"/>
+        <v>0.26850877192982453</v>
+      </c>
+      <c r="Z10" s="47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H11" s="25">
         <v>1200000</v>
       </c>
@@ -12041,7 +17796,7 @@
       <c r="L11" s="14">
         <v>1200000</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="15">
         <v>6.0049999999999999</v>
       </c>
       <c r="N11" s="15">
@@ -12049,18 +17804,48 @@
         <v>0.45900000000000052</v>
       </c>
       <c r="O11" s="13"/>
-      <c r="P11" s="37">
+      <c r="P11" s="36">
         <v>1200000</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="Q11" s="37">
         <v>3.794</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R11" s="38">
         <f t="shared" si="2"/>
         <v>0.39999999999999991</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="25">
+        <v>1200000</v>
+      </c>
+      <c r="T11" s="37">
+        <f t="shared" si="3"/>
+        <v>7.4349999999999996</v>
+      </c>
+      <c r="U11" s="37">
+        <f t="shared" si="4"/>
+        <v>2.2109999999999999</v>
+      </c>
+      <c r="V11" s="37">
+        <v>3.794</v>
+      </c>
+      <c r="W11" s="45">
+        <f t="shared" si="5"/>
+        <v>0.55319940476190477</v>
+      </c>
+      <c r="X11" s="45">
+        <f>U11/(T11+U11+V11) + 0.001</f>
+        <v>0.16550892857142857</v>
+      </c>
+      <c r="Y11" s="45">
+        <f t="shared" si="7"/>
+        <v>0.28229166666666666</v>
+      </c>
+      <c r="Z11" s="47">
+        <f t="shared" si="8"/>
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H12" s="25">
         <v>1400000</v>
       </c>
@@ -12075,7 +17860,7 @@
       <c r="L12" s="14">
         <v>1400000</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="15">
         <v>6.4640000000000004</v>
       </c>
       <c r="N12" s="15">
@@ -12083,18 +17868,48 @@
         <v>0.3879999999999999</v>
       </c>
       <c r="O12" s="13"/>
-      <c r="P12" s="37">
+      <c r="P12" s="36">
         <v>1400000</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="37">
         <v>4.194</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="38">
         <f t="shared" si="2"/>
         <v>0.36099999999999977</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="25">
+        <v>1400000</v>
+      </c>
+      <c r="T12" s="37">
+        <f t="shared" si="3"/>
+        <v>8.6359999999999992</v>
+      </c>
+      <c r="U12" s="37">
+        <f t="shared" si="4"/>
+        <v>2.2700000000000005</v>
+      </c>
+      <c r="V12" s="37">
+        <v>4.194</v>
+      </c>
+      <c r="W12" s="45">
+        <f t="shared" si="5"/>
+        <v>0.57192052980132457</v>
+      </c>
+      <c r="X12" s="45">
+        <f t="shared" si="6"/>
+        <v>0.15033112582781463</v>
+      </c>
+      <c r="Y12" s="45">
+        <f t="shared" si="7"/>
+        <v>0.27774834437086099</v>
+      </c>
+      <c r="Z12" s="47">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H13" s="25">
         <v>1600000</v>
       </c>
@@ -12109,7 +17924,7 @@
       <c r="L13" s="14">
         <v>1600000</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="15">
         <v>6.8520000000000003</v>
       </c>
       <c r="N13" s="15">
@@ -12117,18 +17932,48 @@
         <v>0.73899999999999988</v>
       </c>
       <c r="O13" s="13"/>
-      <c r="P13" s="37">
+      <c r="P13" s="36">
         <v>1600000</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13" s="37">
         <v>4.5549999999999997</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="38">
         <f t="shared" si="2"/>
         <v>0.47500000000000053</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="25">
+        <v>1600000</v>
+      </c>
+      <c r="T13" s="37">
+        <f t="shared" si="3"/>
+        <v>10.257999999999999</v>
+      </c>
+      <c r="U13" s="37">
+        <f t="shared" si="4"/>
+        <v>2.2970000000000006</v>
+      </c>
+      <c r="V13" s="37">
+        <v>4.5549999999999997</v>
+      </c>
+      <c r="W13" s="45">
+        <f t="shared" si="5"/>
+        <v>0.59953243717124483</v>
+      </c>
+      <c r="X13" s="45">
+        <f t="shared" si="6"/>
+        <v>0.13424897720631213</v>
+      </c>
+      <c r="Y13" s="45">
+        <f t="shared" si="7"/>
+        <v>0.26621858562244299</v>
+      </c>
+      <c r="Z13" s="47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H14" s="25">
         <v>1800000</v>
       </c>
@@ -12143,7 +17988,7 @@
       <c r="L14" s="14">
         <v>1800000</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="15">
         <v>7.5910000000000002</v>
       </c>
       <c r="N14" s="15">
@@ -12151,18 +17996,48 @@
         <v>0.4319999999999995</v>
       </c>
       <c r="O14" s="13"/>
-      <c r="P14" s="37">
+      <c r="P14" s="36">
         <v>1800000</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="37">
         <v>5.03</v>
       </c>
-      <c r="R14" s="39">
+      <c r="R14" s="38">
         <f t="shared" si="2"/>
         <v>0.3069999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S14" s="25">
+        <v>1800000</v>
+      </c>
+      <c r="T14" s="37">
+        <f t="shared" si="3"/>
+        <v>11.158999999999999</v>
+      </c>
+      <c r="U14" s="37">
+        <f t="shared" si="4"/>
+        <v>2.5609999999999999</v>
+      </c>
+      <c r="V14" s="37">
+        <v>5.03</v>
+      </c>
+      <c r="W14" s="45">
+        <f>T14/(T14+U14+V14) - 0.001</f>
+        <v>0.5941466666666666</v>
+      </c>
+      <c r="X14" s="45">
+        <f t="shared" si="6"/>
+        <v>0.13658666666666666</v>
+      </c>
+      <c r="Y14" s="45">
+        <f t="shared" si="7"/>
+        <v>0.26826666666666665</v>
+      </c>
+      <c r="Z14" s="47">
+        <f t="shared" si="8"/>
+        <v>0.99899999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="27">
         <v>2000000</v>
       </c>
@@ -12174,18 +18049,54 @@
       <c r="L15" s="16">
         <v>2000000</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="17">
         <v>8.0229999999999997</v>
       </c>
       <c r="N15" s="17"/>
       <c r="O15" s="18"/>
-      <c r="P15" s="40">
+      <c r="P15" s="39">
         <v>2000000</v>
       </c>
-      <c r="Q15" s="41">
+      <c r="Q15" s="40">
         <v>5.3369999999999997</v>
       </c>
-      <c r="R15" s="42"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="27">
+        <v>2000000</v>
+      </c>
+      <c r="T15" s="37">
+        <f t="shared" si="3"/>
+        <v>12.812000000000001</v>
+      </c>
+      <c r="U15" s="37">
+        <f t="shared" si="4"/>
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="V15" s="40">
+        <v>5.3369999999999997</v>
+      </c>
+      <c r="W15" s="45">
+        <f t="shared" si="5"/>
+        <v>0.61492680585553161</v>
+      </c>
+      <c r="X15" s="45">
+        <f t="shared" si="6"/>
+        <v>0.12891768658507319</v>
+      </c>
+      <c r="Y15" s="45">
+        <f t="shared" si="7"/>
+        <v>0.2561555075593952</v>
+      </c>
+      <c r="Z15" s="47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="47"/>
     </row>
     <row r="22" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K22" s="6"/>
@@ -12214,7 +18125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9BEAFE-6B2B-4128-9B29-5AC98D650964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12227,23 +18138,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -12252,81 +18163,81 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="48">
         <v>20</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -12618,7 +18529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE4AE3D-8589-4359-9E39-E8A8D490F007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12631,101 +18542,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="48">
         <v>20</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="48">
         <v>2000000</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -12879,7 +18790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946918F2-691D-476E-85B8-BB2E0F70E0AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E113"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -12890,81 +18801,81 @@
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="48">
         <v>20</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -14685,7 +20596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B451884F-F8BD-4F01-B10F-A7E0BAE46247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14699,81 +20610,81 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="48">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -15445,7 +21356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F077C225-171D-430F-9D38-9B5D3C2625F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15456,84 +21367,84 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="48">
         <v>200</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="48">
         <v>562500</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="44" t="s">
         <v>50</v>
       </c>
     </row>
@@ -15571,11 +21482,11 @@
         <v>19</v>
       </c>
       <c r="F19">
-        <f>B19/1000</f>
+        <f t="shared" ref="F19:F48" si="0">B19/1000</f>
         <v>0.41299999999999998</v>
       </c>
       <c r="G19">
-        <f>C19/1000</f>
+        <f t="shared" ref="G19:G48" si="1">C19/1000</f>
         <v>1.6E-2</v>
       </c>
     </row>
@@ -15593,11 +21504,11 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <f>B20/1000</f>
+        <f t="shared" si="0"/>
         <v>0.502</v>
       </c>
       <c r="G20">
-        <f>C20/1000</f>
+        <f t="shared" si="1"/>
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
@@ -15615,11 +21526,11 @@
         <v>58</v>
       </c>
       <c r="F21">
-        <f>B21/1000</f>
+        <f t="shared" si="0"/>
         <v>0.39400000000000002</v>
       </c>
       <c r="G21">
-        <f>C21/1000</f>
+        <f t="shared" si="1"/>
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
@@ -15637,11 +21548,11 @@
         <v>78</v>
       </c>
       <c r="F22">
-        <f>B22/1000</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="G22">
-        <f>C22/1000</f>
+        <f t="shared" si="1"/>
         <v>0.153</v>
       </c>
     </row>
@@ -15659,11 +21570,11 @@
         <v>97</v>
       </c>
       <c r="F23">
-        <f>B23/1000</f>
+        <f t="shared" si="0"/>
         <v>0.47899999999999998</v>
       </c>
       <c r="G23">
-        <f>C23/1000</f>
+        <f t="shared" si="1"/>
         <v>0.26600000000000001</v>
       </c>
     </row>
@@ -15681,11 +21592,11 @@
         <v>117</v>
       </c>
       <c r="F24">
-        <f>B24/1000</f>
+        <f t="shared" si="0"/>
         <v>0.441</v>
       </c>
       <c r="G24">
-        <f>C24/1000</f>
+        <f t="shared" si="1"/>
         <v>0.441</v>
       </c>
     </row>
@@ -15703,11 +21614,11 @@
         <v>136</v>
       </c>
       <c r="F25">
-        <f>B25/1000</f>
+        <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
       <c r="G25">
-        <f>C25/1000</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
@@ -15725,11 +21636,11 @@
         <v>156</v>
       </c>
       <c r="F26">
-        <f>B26/1000</f>
+        <f t="shared" si="0"/>
         <v>0.45200000000000001</v>
       </c>
       <c r="G26">
-        <f>C26/1000</f>
+        <f t="shared" si="1"/>
         <v>0.94</v>
       </c>
     </row>
@@ -15747,11 +21658,11 @@
         <v>175</v>
       </c>
       <c r="F27">
-        <f>B27/1000</f>
+        <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
       <c r="G27">
-        <f>C27/1000</f>
+        <f t="shared" si="1"/>
         <v>1.0609999999999999</v>
       </c>
     </row>
@@ -15769,11 +21680,11 @@
         <v>195</v>
       </c>
       <c r="F28">
-        <f>B28/1000</f>
+        <f t="shared" si="0"/>
         <v>0.441</v>
       </c>
       <c r="G28">
-        <f>C28/1000</f>
+        <f t="shared" si="1"/>
         <v>1.244</v>
       </c>
     </row>
@@ -15791,11 +21702,11 @@
         <v>214</v>
       </c>
       <c r="F29">
-        <f>B29/1000</f>
+        <f t="shared" si="0"/>
         <v>0.46500000000000002</v>
       </c>
       <c r="G29">
-        <f>C29/1000</f>
+        <f t="shared" si="1"/>
         <v>1.385</v>
       </c>
     </row>
@@ -15813,11 +21724,11 @@
         <v>234</v>
       </c>
       <c r="F30">
-        <f>B30/1000</f>
+        <f t="shared" si="0"/>
         <v>0.46600000000000003</v>
       </c>
       <c r="G30">
-        <f>C30/1000</f>
+        <f t="shared" si="1"/>
         <v>1.5840000000000001</v>
       </c>
     </row>
@@ -15835,11 +21746,11 @@
         <v>253</v>
       </c>
       <c r="F31">
-        <f>B31/1000</f>
+        <f t="shared" si="0"/>
         <v>0.44800000000000001</v>
       </c>
       <c r="G31">
-        <f>C31/1000</f>
+        <f t="shared" si="1"/>
         <v>1.7709999999999999</v>
       </c>
     </row>
@@ -15857,11 +21768,11 @@
         <v>273</v>
       </c>
       <c r="F32">
-        <f>B32/1000</f>
+        <f t="shared" si="0"/>
         <v>0.47899999999999998</v>
       </c>
       <c r="G32">
-        <f>C32/1000</f>
+        <f t="shared" si="1"/>
         <v>1.944</v>
       </c>
     </row>
@@ -15879,11 +21790,11 @@
         <v>292</v>
       </c>
       <c r="F33">
-        <f>B33/1000</f>
+        <f t="shared" si="0"/>
         <v>0.47599999999999998</v>
       </c>
       <c r="G33">
-        <f>C33/1000</f>
+        <f t="shared" si="1"/>
         <v>2.081</v>
       </c>
     </row>
@@ -15901,11 +21812,11 @@
         <v>312</v>
       </c>
       <c r="F34">
-        <f>B34/1000</f>
+        <f t="shared" si="0"/>
         <v>0.47699999999999998</v>
       </c>
       <c r="G34">
-        <f>C34/1000</f>
+        <f t="shared" si="1"/>
         <v>2.3370000000000002</v>
       </c>
     </row>
@@ -15923,11 +21834,11 @@
         <v>331</v>
       </c>
       <c r="F35">
-        <f>B35/1000</f>
+        <f t="shared" si="0"/>
         <v>0.50700000000000001</v>
       </c>
       <c r="G35">
-        <f>C35/1000</f>
+        <f t="shared" si="1"/>
         <v>2.4969999999999999</v>
       </c>
     </row>
@@ -15945,11 +21856,11 @@
         <v>351</v>
       </c>
       <c r="F36">
-        <f>B36/1000</f>
+        <f t="shared" si="0"/>
         <v>0.49099999999999999</v>
       </c>
       <c r="G36">
-        <f>C36/1000</f>
+        <f t="shared" si="1"/>
         <v>2.798</v>
       </c>
     </row>
@@ -15967,11 +21878,11 @@
         <v>370</v>
       </c>
       <c r="F37">
-        <f>B37/1000</f>
+        <f t="shared" si="0"/>
         <v>0.52400000000000002</v>
       </c>
       <c r="G37">
-        <f>C37/1000</f>
+        <f t="shared" si="1"/>
         <v>3.0710000000000002</v>
       </c>
     </row>
@@ -15989,11 +21900,11 @@
         <v>390</v>
       </c>
       <c r="F38">
-        <f>B38/1000</f>
+        <f t="shared" si="0"/>
         <v>0.55600000000000005</v>
       </c>
       <c r="G38">
-        <f>C38/1000</f>
+        <f t="shared" si="1"/>
         <v>3.407</v>
       </c>
     </row>
@@ -16011,11 +21922,11 @@
         <v>409</v>
       </c>
       <c r="F39">
-        <f>B39/1000</f>
+        <f t="shared" si="0"/>
         <v>0.55500000000000005</v>
       </c>
       <c r="G39">
-        <f>C39/1000</f>
+        <f t="shared" si="1"/>
         <v>3.7290000000000001</v>
       </c>
     </row>
@@ -16033,11 +21944,11 @@
         <v>429</v>
       </c>
       <c r="F40">
-        <f>B40/1000</f>
+        <f t="shared" si="0"/>
         <v>0.54800000000000004</v>
       </c>
       <c r="G40">
-        <f>C40/1000</f>
+        <f t="shared" si="1"/>
         <v>4.2320000000000002</v>
       </c>
     </row>
@@ -16055,11 +21966,11 @@
         <v>448</v>
       </c>
       <c r="F41">
-        <f>B41/1000</f>
+        <f t="shared" si="0"/>
         <v>0.73599999999999999</v>
       </c>
       <c r="G41">
-        <f>C41/1000</f>
+        <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
     </row>
@@ -16077,11 +21988,11 @@
         <v>468</v>
       </c>
       <c r="F42">
-        <f>B42/1000</f>
+        <f t="shared" si="0"/>
         <v>0.78500000000000003</v>
       </c>
       <c r="G42">
-        <f>C42/1000</f>
+        <f t="shared" si="1"/>
         <v>8.9009999999999998</v>
       </c>
     </row>
@@ -16099,11 +22010,11 @@
         <v>487</v>
       </c>
       <c r="F43">
-        <f>B43/1000</f>
+        <f t="shared" si="0"/>
         <v>0.85799999999999998</v>
       </c>
       <c r="G43">
-        <f>C43/1000</f>
+        <f t="shared" si="1"/>
         <v>11.311</v>
       </c>
     </row>
@@ -16121,11 +22032,11 @@
         <v>507</v>
       </c>
       <c r="F44">
-        <f>B44/1000</f>
+        <f t="shared" si="0"/>
         <v>0.90600000000000003</v>
       </c>
       <c r="G44">
-        <f>C44/1000</f>
+        <f t="shared" si="1"/>
         <v>13.111000000000001</v>
       </c>
     </row>
@@ -16143,11 +22054,11 @@
         <v>526</v>
       </c>
       <c r="F45">
-        <f>B45/1000</f>
+        <f t="shared" si="0"/>
         <v>0.93400000000000005</v>
       </c>
       <c r="G45">
-        <f>C45/1000</f>
+        <f t="shared" si="1"/>
         <v>15.374000000000001</v>
       </c>
     </row>
@@ -16165,11 +22076,11 @@
         <v>546</v>
       </c>
       <c r="F46">
-        <f>B46/1000</f>
+        <f t="shared" si="0"/>
         <v>0.96699999999999997</v>
       </c>
       <c r="G46">
-        <f>C46/1000</f>
+        <f t="shared" si="1"/>
         <v>15.688000000000001</v>
       </c>
     </row>
@@ -16187,11 +22098,11 @@
         <v>565</v>
       </c>
       <c r="F47">
-        <f>B47/1000</f>
+        <f t="shared" si="0"/>
         <v>0.98</v>
       </c>
       <c r="G47">
-        <f>C47/1000</f>
+        <f t="shared" si="1"/>
         <v>17.379000000000001</v>
       </c>
     </row>
@@ -16209,11 +22120,11 @@
         <v>585</v>
       </c>
       <c r="F48">
-        <f>B48/1000</f>
+        <f t="shared" si="0"/>
         <v>1.0629999999999999</v>
       </c>
       <c r="G48">
-        <f>C48/1000</f>
+        <f t="shared" si="1"/>
         <v>17.951000000000001</v>
       </c>
     </row>
@@ -16230,4 +22141,1024 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>120</v>
+      </c>
+      <c r="B2">
+        <v>417</v>
+      </c>
+      <c r="C2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>394</v>
+      </c>
+      <c r="C3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>392</v>
+      </c>
+      <c r="C4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>120</v>
+      </c>
+      <c r="B5">
+        <v>417</v>
+      </c>
+      <c r="C5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <v>418</v>
+      </c>
+      <c r="C6">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>402</v>
+      </c>
+      <c r="C7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>120</v>
+      </c>
+      <c r="B8">
+        <v>418</v>
+      </c>
+      <c r="C8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>120</v>
+      </c>
+      <c r="B9">
+        <v>419</v>
+      </c>
+      <c r="C9">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>120</v>
+      </c>
+      <c r="B10">
+        <v>418</v>
+      </c>
+      <c r="C10">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>120</v>
+      </c>
+      <c r="B11">
+        <v>390</v>
+      </c>
+      <c r="C11">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>411</v>
+      </c>
+      <c r="C12">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>437</v>
+      </c>
+      <c r="C13">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>397</v>
+      </c>
+      <c r="C14">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>120</v>
+      </c>
+      <c r="B15">
+        <v>406</v>
+      </c>
+      <c r="C15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>423</v>
+      </c>
+      <c r="C16">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>120</v>
+      </c>
+      <c r="B17">
+        <v>425</v>
+      </c>
+      <c r="C17">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>120</v>
+      </c>
+      <c r="B18">
+        <v>403</v>
+      </c>
+      <c r="C18">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>120</v>
+      </c>
+      <c r="B19">
+        <v>421</v>
+      </c>
+      <c r="C19">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>120</v>
+      </c>
+      <c r="B20">
+        <v>404</v>
+      </c>
+      <c r="C20">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>457</v>
+      </c>
+      <c r="C21">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>120</v>
+      </c>
+      <c r="B22">
+        <v>418</v>
+      </c>
+      <c r="C22">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>120</v>
+      </c>
+      <c r="B23">
+        <v>416</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>120</v>
+      </c>
+      <c r="B24">
+        <v>487</v>
+      </c>
+      <c r="C24">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>120</v>
+      </c>
+      <c r="B25">
+        <v>550</v>
+      </c>
+      <c r="C25">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>120</v>
+      </c>
+      <c r="B26">
+        <v>652</v>
+      </c>
+      <c r="C26">
+        <v>7165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>120</v>
+      </c>
+      <c r="B27">
+        <v>658</v>
+      </c>
+      <c r="C27">
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>120</v>
+      </c>
+      <c r="B28">
+        <v>667</v>
+      </c>
+      <c r="C28">
+        <v>7684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>120</v>
+      </c>
+      <c r="B29">
+        <v>707</v>
+      </c>
+      <c r="C29">
+        <v>7513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>120</v>
+      </c>
+      <c r="B30">
+        <v>679</v>
+      </c>
+      <c r="C30">
+        <v>7398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>120</v>
+      </c>
+      <c r="B31">
+        <v>640</v>
+      </c>
+      <c r="C31">
+        <v>6313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-955</v>
+      </c>
+      <c r="B2">
+        <v>294</v>
+      </c>
+      <c r="C2">
+        <v>78</v>
+      </c>
+      <c r="E2">
+        <f>ROUND((955 + A2)/2.4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>294</v>
+      </c>
+      <c r="G2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-914</v>
+      </c>
+      <c r="B3">
+        <v>320</v>
+      </c>
+      <c r="C3">
+        <v>92</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E31" si="0">ROUND((955 + A3)/2.4, 0)</f>
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>320</v>
+      </c>
+      <c r="G3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-872</v>
+      </c>
+      <c r="B4">
+        <v>338</v>
+      </c>
+      <c r="C4">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>338</v>
+      </c>
+      <c r="G4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-830</v>
+      </c>
+      <c r="B5">
+        <v>346</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F5">
+        <v>346</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-789</v>
+      </c>
+      <c r="B6">
+        <v>341</v>
+      </c>
+      <c r="C6">
+        <v>97</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>341</v>
+      </c>
+      <c r="G6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-747</v>
+      </c>
+      <c r="B7">
+        <v>330</v>
+      </c>
+      <c r="C7">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="F7">
+        <v>330</v>
+      </c>
+      <c r="G7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-706</v>
+      </c>
+      <c r="B8">
+        <v>290</v>
+      </c>
+      <c r="C8">
+        <v>93</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="F8">
+        <v>290</v>
+      </c>
+      <c r="G8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-664</v>
+      </c>
+      <c r="B9">
+        <v>299</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="F9">
+        <v>299</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-622</v>
+      </c>
+      <c r="B10">
+        <v>344</v>
+      </c>
+      <c r="C10">
+        <v>109</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="F10">
+        <v>344</v>
+      </c>
+      <c r="G10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-581</v>
+      </c>
+      <c r="B11">
+        <v>293</v>
+      </c>
+      <c r="C11">
+        <v>102</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="F11">
+        <v>293</v>
+      </c>
+      <c r="G11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-539</v>
+      </c>
+      <c r="B12">
+        <v>332</v>
+      </c>
+      <c r="C12">
+        <v>109</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="F12">
+        <v>332</v>
+      </c>
+      <c r="G12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-498</v>
+      </c>
+      <c r="B13">
+        <v>345</v>
+      </c>
+      <c r="C13">
+        <v>99</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="F13">
+        <v>345</v>
+      </c>
+      <c r="G13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-456</v>
+      </c>
+      <c r="B14">
+        <v>330</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="F14">
+        <v>330</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-415</v>
+      </c>
+      <c r="B15">
+        <v>335</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="F15">
+        <v>335</v>
+      </c>
+      <c r="G15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-373</v>
+      </c>
+      <c r="B16">
+        <v>332</v>
+      </c>
+      <c r="C16">
+        <v>99</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="F16">
+        <v>332</v>
+      </c>
+      <c r="G16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-331</v>
+      </c>
+      <c r="B17">
+        <v>346</v>
+      </c>
+      <c r="C17">
+        <v>101</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="F17">
+        <v>346</v>
+      </c>
+      <c r="G17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-290</v>
+      </c>
+      <c r="B18">
+        <v>344</v>
+      </c>
+      <c r="C18">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="F18">
+        <v>344</v>
+      </c>
+      <c r="G18">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-248</v>
+      </c>
+      <c r="B19">
+        <v>343</v>
+      </c>
+      <c r="C19">
+        <v>108</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="F19">
+        <v>343</v>
+      </c>
+      <c r="G19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-207</v>
+      </c>
+      <c r="B20">
+        <v>340</v>
+      </c>
+      <c r="C20">
+        <v>108</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="F20">
+        <v>340</v>
+      </c>
+      <c r="G20">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-165</v>
+      </c>
+      <c r="B21">
+        <v>340</v>
+      </c>
+      <c r="C21">
+        <v>112</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>329</v>
+      </c>
+      <c r="F21">
+        <v>340</v>
+      </c>
+      <c r="G21">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-123</v>
+      </c>
+      <c r="B22">
+        <v>310</v>
+      </c>
+      <c r="C22">
+        <v>113</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>347</v>
+      </c>
+      <c r="F22">
+        <v>310</v>
+      </c>
+      <c r="G22">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-82</v>
+      </c>
+      <c r="B23">
+        <v>342</v>
+      </c>
+      <c r="C23">
+        <v>111</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="F23">
+        <v>342</v>
+      </c>
+      <c r="G23">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-40</v>
+      </c>
+      <c r="B24">
+        <v>346</v>
+      </c>
+      <c r="C24">
+        <v>114</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+      <c r="F24">
+        <v>346</v>
+      </c>
+      <c r="G24">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>331</v>
+      </c>
+      <c r="C25">
+        <v>164</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
+      <c r="F25">
+        <v>331</v>
+      </c>
+      <c r="G25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>388</v>
+      </c>
+      <c r="C26">
+        <v>547</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+      <c r="F26">
+        <v>388</v>
+      </c>
+      <c r="G26">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>84</v>
+      </c>
+      <c r="B27">
+        <v>454</v>
+      </c>
+      <c r="C27">
+        <v>1028</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>433</v>
+      </c>
+      <c r="F27">
+        <v>454</v>
+      </c>
+      <c r="G27">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>126</v>
+      </c>
+      <c r="B28">
+        <v>508</v>
+      </c>
+      <c r="C28">
+        <v>1437</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="F28">
+        <v>508</v>
+      </c>
+      <c r="G28">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>168</v>
+      </c>
+      <c r="B29">
+        <v>524</v>
+      </c>
+      <c r="C29">
+        <v>1474</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>468</v>
+      </c>
+      <c r="F29">
+        <v>524</v>
+      </c>
+      <c r="G29">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>209</v>
+      </c>
+      <c r="B30">
+        <v>476</v>
+      </c>
+      <c r="C30">
+        <v>1213</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>485</v>
+      </c>
+      <c r="F30">
+        <v>476</v>
+      </c>
+      <c r="G30">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>251</v>
+      </c>
+      <c r="B31">
+        <v>391</v>
+      </c>
+      <c r="C31">
+        <v>493</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="F31">
+        <v>391</v>
+      </c>
+      <c r="G31">
+        <v>493</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Laufzeit Benchmarks.xlsx
+++ b/Laufzeit Benchmarks.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmeye\Documents\CUDA-Project-Hash-Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HashGrid Git\CUDA-Project-Hash-Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7770" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7770" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,10 @@
     <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
     <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
     <sheet name="Tabelle7" sheetId="7" r:id="rId6"/>
-    <sheet name="Tabelle6" sheetId="8" r:id="rId7"/>
-    <sheet name="Tabelle8" sheetId="9" r:id="rId8"/>
+    <sheet name="Tabelle8" sheetId="9" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
   <si>
     <t>Mit Daten kopieren</t>
   </si>
@@ -204,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -416,6 +415,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1232,7 +1233,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FC468B7-C281-454C-AFC2-05BC311EF1AA}" type="CELLRANGE">
+                    <a:fld id="{C67AA1EB-D954-40F0-A829-ACB5ABF94CE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1265,8 +1266,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F353B8C4-C082-4314-9BA2-9E9900944EF7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{3B30A84E-C44A-4C69-84F0-0934363BBBBE}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1284,6 +1285,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1298,8 +1300,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DDA4501-3891-4C88-8451-E4CF37A20CF2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0FDF372B-8033-4531-B087-F6868BD69F3D}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1317,6 +1319,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1331,8 +1334,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A873E254-B027-4371-83EA-649730D3D334}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B4DEB99D-2553-430C-88D0-780A3A7A6AFD}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1350,6 +1353,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1364,8 +1368,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C400DAC3-1B7E-4489-A475-2603D8B4B8D2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D97CE22D-1320-48C1-ACCA-A11D10297E86}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1383,6 +1387,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1397,8 +1402,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DF35786-623E-477F-B0E6-891DC2E591F7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6DB144CD-1AC7-432C-A20A-9C8CA7E80C5C}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1416,6 +1421,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1430,8 +1436,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{665FE862-4915-4675-95FA-E1920C956BF3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B83D8BDE-8EA7-4A3B-B9F1-9733581FD88C}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1449,6 +1455,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1463,8 +1470,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{659C3608-5A3A-4EF5-B034-306F1AB30A2E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{EF2E1D10-C24E-408F-9604-02A7C4775294}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1482,6 +1489,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1496,8 +1504,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{978A11F1-30B8-4BCC-9395-03CD212AB79F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0E39F391-4489-4A72-BF5D-6A08347C8440}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1515,6 +1523,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1529,8 +1538,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87A18432-9534-4E28-961A-55914F64D002}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{403E3282-6FC4-4A46-8368-A0D8225A03C5}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1548,6 +1557,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1767,7 +1777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D979B3A2-3CEA-4EFE-8E10-143272E80B04}" type="CELLRANGE">
+                    <a:fld id="{FF969F7C-7A6C-4BDF-8792-2AB3023E066A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1800,8 +1810,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AB86E51-749E-41E5-90F7-9F3B8AC26EAB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5B87FAE0-FC47-4137-88BF-2B4CF449CDE8}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1819,6 +1829,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1833,8 +1844,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE224606-6F2F-4D02-B18A-DAE0C94C9BC6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8DB05E0A-11E3-4A80-BB3A-E0AC11491C0D}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1852,6 +1863,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1866,8 +1878,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78ACE16A-7946-4058-A39C-90E55056D069}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CF7679E4-6214-456D-9461-2E5F3A92AC34}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1885,6 +1897,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1899,8 +1912,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40CDAB6E-433C-47D9-92C3-9E0C518CFB3E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{EC1BFB3D-04F2-44C1-BA5D-4E65EF92DFA2}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1918,6 +1931,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1932,8 +1946,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6154B22D-9792-480E-BCCC-A0F8A3FF97B2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{C010D404-9B86-4AEB-81F8-3C7708B3F249}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1951,6 +1965,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1965,8 +1980,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B85EDA8-FEE7-48F8-9BB0-7AA54DDFF76D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{7467A174-400A-4037-AE81-0320426078B1}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1984,6 +1999,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1998,8 +2014,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0BDD80A-0C56-4515-A95B-DCF059DC1DD7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0A2F7EBE-4075-43D7-93B5-EC0468E4AF61}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -2017,6 +2033,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2031,8 +2048,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{431E56EE-0103-4676-8FB8-443CA95AB8A4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F0EAF7DA-C49C-44B3-88B5-8249CA645AAF}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -2050,6 +2067,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2064,8 +2082,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F97BE22-6F40-4F59-82AF-C47313C6DACD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{891A8803-192C-41B0-BD59-444F99ADFB5B}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -2083,6 +2101,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2302,7 +2321,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F5613D1-E3C4-4A19-855C-30908F205E27}" type="CELLRANGE">
+                    <a:fld id="{3E948AE1-CA0D-4BEF-A72C-C39A23EC7E54}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2335,8 +2354,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27771E91-7623-48C1-9CFF-8D980391758E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{4B2941BC-D97B-4B4A-9CC6-3617B716D7C6}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -2354,6 +2373,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2368,8 +2388,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EF34F86-6168-4D68-8FD4-C88C039BDD7E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{C5064DD7-8C11-4B75-8B89-BE90D04C80A9}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -2387,6 +2407,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2401,8 +2422,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A848EEB-E836-47E8-85CC-E1AB950B1045}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{38581536-9D83-4CB5-A11F-06EB04EFBA06}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -2420,6 +2441,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2434,8 +2456,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27031B3B-E2A3-4996-8536-BFE306E7EEEC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D981700C-9D31-40D0-91FD-F2C9995E53C4}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -2453,6 +2475,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2467,8 +2490,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CC63CD3-EB41-4CD0-95D3-30AA0B41FBB9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5802476B-6C9A-47E5-950C-8FFC17582CC3}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -2486,6 +2509,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2500,8 +2524,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C917773-2E72-4933-BD37-95CA7AD985F7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{562873BB-435E-4BD3-9495-13EB46802496}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -2519,6 +2543,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2533,8 +2558,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A50D795-38D4-451C-A33C-C0E7FA7FD5D3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{81658EDC-C168-46F1-A89D-F88B969F99BB}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -2552,6 +2577,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2566,8 +2592,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31CED3BC-DABE-4E70-9D9C-5E09E0AA852F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{A4486484-1C40-45C3-BAB9-583E5BA061B5}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -2585,6 +2611,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2599,8 +2626,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5BE96FC-F5E6-4839-8038-6ED98CA11134}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{FC74A2E4-D6BC-48E0-AB3C-47253CF7D1F0}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -2618,6 +2645,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4222,6 +4250,50 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Laufzeit bei Veränderung der Grid-Größe</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4234,13 +4306,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4274,6 +4360,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Tabelle3!$A$22:$A$30</c:f>
@@ -4316,31 +4460,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>19.948</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.771000000000001</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.707999999999998</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.718</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.847999999999999</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.527999999999999</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.294</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.428999999999998</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.869</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4367,6 +4511,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Tabelle3!$A$22:$A$30</c:f>
@@ -4409,31 +4611,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>48.581000000000003</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.262</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.764000000000003</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.755000000000003</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.542999999999999</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.188000000000002</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>117.726</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>315.92899999999997</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>480.88400000000001</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4445,8 +4647,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4596,6 +4799,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4686,45 +4903,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -9875,6 +10053,50 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Abfragezeit bei Veränderung der Anfrage x-Position</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9887,13 +10109,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -9915,7 +10151,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]benchmark!$B$1</c:f>
+              <c:f>Tabelle8!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9925,7 +10161,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -9936,109 +10172,208 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>[1]benchmark!$B$2:$B$31</c:f>
+              <c:f>Tabelle8!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>294</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>320</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>338</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>346</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>341</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>330</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>290</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>299</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>293</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>332</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>345</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>330</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>335</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>332</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>346</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>344</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>343</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>340</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>340</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>310</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>342</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>346</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>331</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle8!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>388</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>421</c:v>
+                </c:pt>
                 <c:pt idx="25">
-                  <c:v>454</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>508</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>524</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>476</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>391</c:v>
+                  <c:v>445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB14-4A6F-9B30-2665D9DCB067}"/>
+              <c16:uniqueId val="{00000000-4C87-47A6-97D7-F1FEEBE26B1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10047,7 +10382,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]benchmark!$C$1</c:f>
+              <c:f>Tabelle8!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10057,7 +10392,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -10068,109 +10403,208 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>[1]benchmark!$C$2:$C$31</c:f>
+              <c:f>Tabelle8!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle8!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>114</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>164</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>547</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1028</c:v>
+                  <c:v>853</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1437</c:v>
+                  <c:v>1178</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1474</c:v>
+                  <c:v>1172</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1213</c:v>
+                  <c:v>1001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>493</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DB14-4A6F-9B30-2665D9DCB067}"/>
+              <c16:uniqueId val="{00000001-4C87-47A6-97D7-F1FEEBE26B1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10183,16 +10617,94 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="550281752"/>
-        <c:axId val="550280112"/>
+        <c:axId val="604094600"/>
+        <c:axId val="604094928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="550281752"/>
+        <c:axId val="604094600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>x-Position im Datensatz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44289683020391679"/>
+              <c:y val="0.8951278686318056"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10201,8 +10713,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -10229,7 +10741,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550280112"/>
+        <c:crossAx val="604094928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10237,7 +10749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="550280112"/>
+        <c:axId val="604094928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10257,14 +10769,86 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Laufzeit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>µs</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -10288,7 +10872,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550281752"/>
+        <c:crossAx val="604094600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10333,753 +10917,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]benchmark!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> GPU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]benchmark!$E$2:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>503</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]benchmark!$F$2:$F$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>508</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>391</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA0C-4CF7-9A0C-1EC1A5D1C7D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]benchmark!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> CPU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]benchmark!$E$2:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>503</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]benchmark!$G$2:$G$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>547</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1028</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1437</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1474</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1213</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>493</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EA0C-4CF7-9A0C-1EC1A5D1C7D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="393643736"/>
-        <c:axId val="393642752"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="393643736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="393642752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="393642752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="393643736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -11435,46 +11279,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -15064,522 +14868,6 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16381,72 +15669,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>358774</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E41C69-F6F9-4818-B64D-E6A1B83249C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF7A50D-981C-4421-8F08-A83DAF32F816}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D3DAF3-6834-4BE6-834A-F8BE13EFE10E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -16473,526 +15716,170 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="B1" t="str">
-            <v xml:space="preserve"> GPU</v>
+            <v xml:space="preserve"> Kopieren</v>
           </cell>
           <cell r="C1" t="str">
-            <v xml:space="preserve"> CPU</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v xml:space="preserve"> GPU</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v xml:space="preserve"> CPU</v>
+            <v xml:space="preserve"> Allokieren</v>
           </cell>
         </row>
         <row r="2">
           <cell r="B2">
-            <v>294</v>
+            <v>15</v>
           </cell>
           <cell r="C2">
-            <v>78</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>294</v>
-          </cell>
-          <cell r="G2">
-            <v>78</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>320</v>
+            <v>30</v>
           </cell>
           <cell r="C3">
-            <v>92</v>
-          </cell>
-          <cell r="E3">
-            <v>17</v>
-          </cell>
-          <cell r="F3">
-            <v>320</v>
-          </cell>
-          <cell r="G3">
-            <v>92</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>338</v>
+            <v>45</v>
           </cell>
           <cell r="C4">
-            <v>103</v>
-          </cell>
-          <cell r="E4">
-            <v>35</v>
-          </cell>
-          <cell r="F4">
-            <v>338</v>
-          </cell>
-          <cell r="G4">
-            <v>103</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>346</v>
+            <v>60</v>
           </cell>
           <cell r="C5">
-            <v>100</v>
-          </cell>
-          <cell r="E5">
-            <v>52</v>
-          </cell>
-          <cell r="F5">
-            <v>346</v>
-          </cell>
-          <cell r="G5">
-            <v>100</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>341</v>
+            <v>75</v>
           </cell>
           <cell r="C6">
-            <v>97</v>
-          </cell>
-          <cell r="E6">
-            <v>69</v>
-          </cell>
-          <cell r="F6">
-            <v>341</v>
-          </cell>
-          <cell r="G6">
-            <v>97</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>330</v>
+            <v>89</v>
           </cell>
           <cell r="C7">
-            <v>95</v>
-          </cell>
-          <cell r="E7">
-            <v>87</v>
-          </cell>
-          <cell r="F7">
-            <v>330</v>
-          </cell>
-          <cell r="G7">
-            <v>95</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>290</v>
+            <v>105</v>
           </cell>
           <cell r="C8">
-            <v>93</v>
-          </cell>
-          <cell r="E8">
-            <v>104</v>
-          </cell>
-          <cell r="F8">
-            <v>290</v>
-          </cell>
-          <cell r="G8">
-            <v>93</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>299</v>
+            <v>119</v>
           </cell>
           <cell r="C9">
-            <v>100</v>
-          </cell>
-          <cell r="E9">
-            <v>121</v>
-          </cell>
-          <cell r="F9">
-            <v>299</v>
-          </cell>
-          <cell r="G9">
-            <v>100</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>344</v>
+            <v>133</v>
           </cell>
           <cell r="C10">
-            <v>109</v>
-          </cell>
-          <cell r="E10">
-            <v>139</v>
-          </cell>
-          <cell r="F10">
-            <v>344</v>
-          </cell>
-          <cell r="G10">
-            <v>109</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>293</v>
+            <v>147</v>
           </cell>
           <cell r="C11">
-            <v>102</v>
-          </cell>
-          <cell r="E11">
-            <v>156</v>
-          </cell>
-          <cell r="F11">
-            <v>293</v>
-          </cell>
-          <cell r="G11">
-            <v>102</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>332</v>
+            <v>163</v>
           </cell>
           <cell r="C12">
-            <v>109</v>
-          </cell>
-          <cell r="E12">
-            <v>173</v>
-          </cell>
-          <cell r="F12">
-            <v>332</v>
-          </cell>
-          <cell r="G12">
-            <v>109</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>345</v>
+            <v>177</v>
           </cell>
           <cell r="C13">
-            <v>99</v>
-          </cell>
-          <cell r="E13">
-            <v>190</v>
-          </cell>
-          <cell r="F13">
-            <v>345</v>
-          </cell>
-          <cell r="G13">
-            <v>99</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>330</v>
+            <v>191</v>
           </cell>
           <cell r="C14">
-            <v>100</v>
-          </cell>
-          <cell r="E14">
-            <v>208</v>
-          </cell>
-          <cell r="F14">
-            <v>330</v>
-          </cell>
-          <cell r="G14">
-            <v>100</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>335</v>
+            <v>208</v>
           </cell>
           <cell r="C15">
-            <v>103</v>
-          </cell>
-          <cell r="E15">
-            <v>225</v>
-          </cell>
-          <cell r="F15">
-            <v>335</v>
-          </cell>
-          <cell r="G15">
-            <v>103</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>332</v>
+            <v>222</v>
           </cell>
           <cell r="C16">
-            <v>99</v>
-          </cell>
-          <cell r="E16">
-            <v>243</v>
-          </cell>
-          <cell r="F16">
-            <v>332</v>
-          </cell>
-          <cell r="G16">
-            <v>99</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>346</v>
+            <v>236</v>
           </cell>
           <cell r="C17">
-            <v>101</v>
-          </cell>
-          <cell r="E17">
-            <v>260</v>
-          </cell>
-          <cell r="F17">
-            <v>346</v>
-          </cell>
-          <cell r="G17">
-            <v>101</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>344</v>
+            <v>250</v>
           </cell>
           <cell r="C18">
-            <v>102</v>
-          </cell>
-          <cell r="E18">
-            <v>277</v>
-          </cell>
-          <cell r="F18">
-            <v>344</v>
-          </cell>
-          <cell r="G18">
-            <v>102</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>343</v>
+            <v>267</v>
           </cell>
           <cell r="C19">
-            <v>108</v>
-          </cell>
-          <cell r="E19">
-            <v>295</v>
-          </cell>
-          <cell r="F19">
-            <v>343</v>
-          </cell>
-          <cell r="G19">
-            <v>108</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>340</v>
+            <v>282</v>
           </cell>
           <cell r="C20">
-            <v>108</v>
-          </cell>
-          <cell r="E20">
-            <v>312</v>
-          </cell>
-          <cell r="F20">
-            <v>340</v>
-          </cell>
-          <cell r="G20">
-            <v>108</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21">
-            <v>340</v>
+            <v>297</v>
           </cell>
           <cell r="C21">
-            <v>112</v>
-          </cell>
-          <cell r="E21">
-            <v>329</v>
-          </cell>
-          <cell r="F21">
-            <v>340</v>
-          </cell>
-          <cell r="G21">
-            <v>112</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>310</v>
-          </cell>
-          <cell r="C22">
-            <v>113</v>
-          </cell>
-          <cell r="E22">
-            <v>347</v>
-          </cell>
-          <cell r="F22">
-            <v>310</v>
-          </cell>
-          <cell r="G22">
-            <v>113</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>342</v>
-          </cell>
-          <cell r="C23">
-            <v>111</v>
-          </cell>
-          <cell r="E23">
-            <v>364</v>
-          </cell>
-          <cell r="F23">
-            <v>342</v>
-          </cell>
-          <cell r="G23">
-            <v>111</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>346</v>
-          </cell>
-          <cell r="C24">
-            <v>114</v>
-          </cell>
-          <cell r="E24">
-            <v>381</v>
-          </cell>
-          <cell r="F24">
-            <v>346</v>
-          </cell>
-          <cell r="G24">
-            <v>114</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>331</v>
-          </cell>
-          <cell r="C25">
-            <v>164</v>
-          </cell>
-          <cell r="E25">
-            <v>398</v>
-          </cell>
-          <cell r="F25">
-            <v>331</v>
-          </cell>
-          <cell r="G25">
-            <v>164</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>388</v>
-          </cell>
-          <cell r="C26">
-            <v>547</v>
-          </cell>
-          <cell r="E26">
-            <v>416</v>
-          </cell>
-          <cell r="F26">
-            <v>388</v>
-          </cell>
-          <cell r="G26">
-            <v>547</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>454</v>
-          </cell>
-          <cell r="C27">
-            <v>1028</v>
-          </cell>
-          <cell r="E27">
-            <v>433</v>
-          </cell>
-          <cell r="F27">
-            <v>454</v>
-          </cell>
-          <cell r="G27">
-            <v>1028</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>508</v>
-          </cell>
-          <cell r="C28">
-            <v>1437</v>
-          </cell>
-          <cell r="E28">
-            <v>450</v>
-          </cell>
-          <cell r="F28">
-            <v>508</v>
-          </cell>
-          <cell r="G28">
-            <v>1437</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>524</v>
-          </cell>
-          <cell r="C29">
-            <v>1474</v>
-          </cell>
-          <cell r="E29">
-            <v>468</v>
-          </cell>
-          <cell r="F29">
-            <v>524</v>
-          </cell>
-          <cell r="G29">
-            <v>1474</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>476</v>
-          </cell>
-          <cell r="C30">
-            <v>1213</v>
-          </cell>
-          <cell r="E30">
-            <v>485</v>
-          </cell>
-          <cell r="F30">
-            <v>476</v>
-          </cell>
-          <cell r="G30">
-            <v>1213</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>391</v>
-          </cell>
-          <cell r="C31">
-            <v>493</v>
-          </cell>
-          <cell r="E31">
-            <v>503</v>
-          </cell>
-          <cell r="F31">
-            <v>391</v>
-          </cell>
-          <cell r="G31">
-            <v>493</v>
+            <v>35</v>
           </cell>
         </row>
       </sheetData>
@@ -17297,11 +16184,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView topLeftCell="L6" zoomScale="92" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6:Y15"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18125,7 +17012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18529,11 +17416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18645,124 +17532,192 @@
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="55">
+        <f>ROUND(E22,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C22" s="55">
+        <f>ROUND(F22,0)</f>
+        <v>49</v>
+      </c>
+      <c r="E22" s="55">
         <v>19.948</v>
       </c>
-      <c r="C22" s="2">
+      <c r="F22" s="56">
         <v>48.581000000000003</v>
       </c>
-      <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="55">
+        <f t="shared" ref="B23:B30" si="0">ROUND(E23,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C23" s="55">
+        <f t="shared" ref="C23:C30" si="1">ROUND(F23,0)</f>
+        <v>55</v>
+      </c>
+      <c r="E23" s="55">
         <v>19.771000000000001</v>
       </c>
-      <c r="C23" s="2">
+      <c r="F23" s="56">
         <v>55.262</v>
       </c>
-      <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="55">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C24" s="55">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="E24" s="55">
         <v>19.707999999999998</v>
       </c>
-      <c r="C24" s="2">
+      <c r="F24" s="56">
         <v>53.764000000000003</v>
       </c>
-      <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="55">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="55">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="E25" s="55">
         <v>19.718</v>
       </c>
-      <c r="C25" s="2">
+      <c r="F25" s="56">
         <v>51.755000000000003</v>
       </c>
-      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="55">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C26" s="55">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E26" s="55">
         <v>19.847999999999999</v>
       </c>
-      <c r="C26" s="2">
+      <c r="F26" s="56">
         <v>55.542999999999999</v>
       </c>
-      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="55">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C27" s="55">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="E27" s="55">
         <v>19.527999999999999</v>
       </c>
-      <c r="C27" s="2">
+      <c r="F27" s="56">
         <v>67.188000000000002</v>
       </c>
-      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="55">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C28" s="55">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="E28" s="55">
         <v>20.294</v>
       </c>
-      <c r="C28" s="2">
+      <c r="F28" s="56">
         <v>117.726</v>
       </c>
-      <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="55">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C29" s="55">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="E29" s="55">
         <v>21.428999999999998</v>
       </c>
-      <c r="C29" s="2">
+      <c r="F29" s="56">
         <v>315.92899999999997</v>
       </c>
-      <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="55">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C30" s="55">
+        <f t="shared" si="1"/>
+        <v>481</v>
+      </c>
+      <c r="E30" s="55">
         <v>30.869</v>
       </c>
-      <c r="C30" s="2">
+      <c r="F30" s="56">
         <v>480.88400000000001</v>
       </c>
-      <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -18785,12 +17740,13 @@
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:E113"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -20596,10 +19552,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -21356,7 +20312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22144,368 +21100,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>120</v>
-      </c>
-      <c r="B2">
-        <v>417</v>
-      </c>
-      <c r="C2">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>120</v>
-      </c>
-      <c r="B3">
-        <v>394</v>
-      </c>
-      <c r="C3">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>120</v>
-      </c>
-      <c r="B4">
-        <v>392</v>
-      </c>
-      <c r="C4">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>120</v>
-      </c>
-      <c r="B5">
-        <v>417</v>
-      </c>
-      <c r="C5">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>120</v>
-      </c>
-      <c r="B6">
-        <v>418</v>
-      </c>
-      <c r="C6">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>120</v>
-      </c>
-      <c r="B7">
-        <v>402</v>
-      </c>
-      <c r="C7">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>120</v>
-      </c>
-      <c r="B8">
-        <v>418</v>
-      </c>
-      <c r="C8">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>120</v>
-      </c>
-      <c r="B9">
-        <v>419</v>
-      </c>
-      <c r="C9">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>120</v>
-      </c>
-      <c r="B10">
-        <v>418</v>
-      </c>
-      <c r="C10">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>120</v>
-      </c>
-      <c r="B11">
-        <v>390</v>
-      </c>
-      <c r="C11">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>120</v>
-      </c>
-      <c r="B12">
-        <v>411</v>
-      </c>
-      <c r="C12">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>120</v>
-      </c>
-      <c r="B13">
-        <v>437</v>
-      </c>
-      <c r="C13">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>120</v>
-      </c>
-      <c r="B14">
-        <v>397</v>
-      </c>
-      <c r="C14">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>120</v>
-      </c>
-      <c r="B15">
-        <v>406</v>
-      </c>
-      <c r="C15">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>120</v>
-      </c>
-      <c r="B16">
-        <v>423</v>
-      </c>
-      <c r="C16">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>120</v>
-      </c>
-      <c r="B17">
-        <v>425</v>
-      </c>
-      <c r="C17">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>120</v>
-      </c>
-      <c r="B18">
-        <v>403</v>
-      </c>
-      <c r="C18">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>120</v>
-      </c>
-      <c r="B19">
-        <v>421</v>
-      </c>
-      <c r="C19">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>120</v>
-      </c>
-      <c r="B20">
-        <v>404</v>
-      </c>
-      <c r="C20">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>120</v>
-      </c>
-      <c r="B21">
-        <v>457</v>
-      </c>
-      <c r="C21">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>120</v>
-      </c>
-      <c r="B22">
-        <v>418</v>
-      </c>
-      <c r="C22">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>120</v>
-      </c>
-      <c r="B23">
-        <v>416</v>
-      </c>
-      <c r="C23">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>120</v>
-      </c>
-      <c r="B24">
-        <v>487</v>
-      </c>
-      <c r="C24">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>120</v>
-      </c>
-      <c r="B25">
-        <v>550</v>
-      </c>
-      <c r="C25">
-        <v>4403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>120</v>
-      </c>
-      <c r="B26">
-        <v>652</v>
-      </c>
-      <c r="C26">
-        <v>7165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>120</v>
-      </c>
-      <c r="B27">
-        <v>658</v>
-      </c>
-      <c r="C27">
-        <v>7650</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>120</v>
-      </c>
-      <c r="B28">
-        <v>667</v>
-      </c>
-      <c r="C28">
-        <v>7684</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>120</v>
-      </c>
-      <c r="B29">
-        <v>707</v>
-      </c>
-      <c r="C29">
-        <v>7513</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>120</v>
-      </c>
-      <c r="B30">
-        <v>679</v>
-      </c>
-      <c r="C30">
-        <v>7398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>120</v>
-      </c>
-      <c r="B31">
-        <v>640</v>
-      </c>
-      <c r="C31">
-        <v>6313</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22532,20 +21131,20 @@
         <v>-955</v>
       </c>
       <c r="B2">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="C2">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <f>ROUND((955 + A2)/2.4, 0)</f>
+        <f>ROUND((955 + A2) / 2.4, 0)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -22553,20 +21152,20 @@
         <v>-914</v>
       </c>
       <c r="B3">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="C3">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E31" si="0">ROUND((955 + A3)/2.4, 0)</f>
+        <f t="shared" ref="E3:E31" si="0">ROUND((955 + A3) / 2.4, 0)</f>
         <v>17</v>
       </c>
       <c r="F3">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="G3">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -22574,20 +21173,20 @@
         <v>-872</v>
       </c>
       <c r="B4">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="C4">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F4">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="G4">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -22595,20 +21194,20 @@
         <v>-830</v>
       </c>
       <c r="B5">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="F5">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -22616,20 +21215,20 @@
         <v>-789</v>
       </c>
       <c r="B6">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="C6">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="F6">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="G6">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -22637,20 +21236,20 @@
         <v>-747</v>
       </c>
       <c r="B7">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="F7">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="G7">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -22658,20 +21257,20 @@
         <v>-706</v>
       </c>
       <c r="B8">
-        <v>290</v>
+        <v>394</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="F8">
-        <v>290</v>
+        <v>394</v>
       </c>
       <c r="G8">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -22679,20 +21278,20 @@
         <v>-664</v>
       </c>
       <c r="B9">
-        <v>299</v>
+        <v>390</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="F9">
-        <v>299</v>
+        <v>390</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -22700,20 +21299,20 @@
         <v>-622</v>
       </c>
       <c r="B10">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="C10">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
       <c r="F10">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="G10">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -22721,20 +21320,20 @@
         <v>-581</v>
       </c>
       <c r="B11">
-        <v>293</v>
+        <v>388</v>
       </c>
       <c r="C11">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
       <c r="F11">
-        <v>293</v>
+        <v>388</v>
       </c>
       <c r="G11">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -22742,20 +21341,20 @@
         <v>-539</v>
       </c>
       <c r="B12">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="C12">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
       <c r="F12">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="G12">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -22763,20 +21362,20 @@
         <v>-498</v>
       </c>
       <c r="B13">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="C13">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="F13">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="G13">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -22784,20 +21383,20 @@
         <v>-456</v>
       </c>
       <c r="B14">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="F14">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -22805,20 +21404,20 @@
         <v>-415</v>
       </c>
       <c r="B15">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="C15">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="F15">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="G15">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -22826,20 +21425,20 @@
         <v>-373</v>
       </c>
       <c r="B16">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="C16">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
       <c r="F16">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="G16">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -22847,20 +21446,20 @@
         <v>-331</v>
       </c>
       <c r="B17">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="C17">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
       <c r="F17">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="G17">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -22868,20 +21467,20 @@
         <v>-290</v>
       </c>
       <c r="B18">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="C18">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
         <v>277</v>
       </c>
       <c r="F18">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="G18">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -22889,20 +21488,20 @@
         <v>-248</v>
       </c>
       <c r="B19">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="C19">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
       <c r="F19">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="G19">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -22910,20 +21509,20 @@
         <v>-207</v>
       </c>
       <c r="B20">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="C20">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
       <c r="F20">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="G20">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -22931,20 +21530,20 @@
         <v>-165</v>
       </c>
       <c r="B21">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="C21">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
       <c r="F21">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="G21">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -22952,20 +21551,20 @@
         <v>-123</v>
       </c>
       <c r="B22">
-        <v>310</v>
+        <v>411</v>
       </c>
       <c r="C22">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>347</v>
       </c>
       <c r="F22">
-        <v>310</v>
+        <v>411</v>
       </c>
       <c r="G22">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -22973,20 +21572,20 @@
         <v>-82</v>
       </c>
       <c r="B23">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="C23">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
       <c r="F23">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="G23">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -22994,20 +21593,20 @@
         <v>-40</v>
       </c>
       <c r="B24">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="C24">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
         <v>381</v>
       </c>
       <c r="F24">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="G24">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -23015,20 +21614,20 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>331</v>
+        <v>412</v>
       </c>
       <c r="C25">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
       <c r="F25">
-        <v>331</v>
+        <v>412</v>
       </c>
       <c r="G25">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -23036,20 +21635,20 @@
         <v>43</v>
       </c>
       <c r="B26">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="C26">
-        <v>547</v>
+        <v>448</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
         <v>416</v>
       </c>
       <c r="F26">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="G26">
-        <v>547</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -23057,20 +21656,20 @@
         <v>84</v>
       </c>
       <c r="B27">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C27">
-        <v>1028</v>
+        <v>853</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
         <v>433</v>
       </c>
       <c r="F27">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G27">
-        <v>1028</v>
+        <v>853</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -23078,20 +21677,20 @@
         <v>126</v>
       </c>
       <c r="B28">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="C28">
-        <v>1437</v>
+        <v>1178</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
       <c r="F28">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="G28">
-        <v>1437</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -23099,20 +21698,20 @@
         <v>168</v>
       </c>
       <c r="B29">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="C29">
-        <v>1474</v>
+        <v>1172</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
       <c r="F29">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="G29">
-        <v>1474</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -23120,20 +21719,20 @@
         <v>209</v>
       </c>
       <c r="B30">
-        <v>476</v>
+        <v>427</v>
       </c>
       <c r="C30">
-        <v>1213</v>
+        <v>1001</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
         <v>485</v>
       </c>
       <c r="F30">
-        <v>476</v>
+        <v>427</v>
       </c>
       <c r="G30">
-        <v>1213</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -23141,20 +21740,20 @@
         <v>251</v>
       </c>
       <c r="B31">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="C31">
-        <v>493</v>
+        <v>420</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
       <c r="F31">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="G31">
-        <v>493</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/Laufzeit Benchmarks.xlsx
+++ b/Laufzeit Benchmarks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7770" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7770" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,11 @@
     <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
     <sheet name="Tabelle7" sheetId="7" r:id="rId6"/>
     <sheet name="Tabelle8" sheetId="9" r:id="rId7"/>
+    <sheet name="Tabelle6" sheetId="10" r:id="rId8"/>
+    <sheet name="Tabelle9" sheetId="11" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
   <si>
     <t>Mit Daten kopieren</t>
   </si>
@@ -198,6 +200,21 @@
   </si>
   <si>
     <t>Prozente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kopieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allokieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kernel</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>512x512x512</t>
   </si>
 </sst>
 </file>
@@ -394,6 +411,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,8 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1150,6 +1167,1283 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle9!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle9!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1x1x1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x2x2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4x4x4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8x8x8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16x16x16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32x32x32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64x64x64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128x128x128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256x256x256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512x512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle9!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADAD-4FA1-91BA-56C79C2FB878}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="499372616"/>
+        <c:axId val="499374256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="499372616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Hash-Grid Dimension</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499374256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="499374256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Laufzeit in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499372616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle9!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle9!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1x1x1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x2x2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4x4x4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8x8x8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16x16x16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32x32x32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64x64x64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128x128x128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256x256x256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512x512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle9!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3946</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B77-45A8-83AC-06DFA3296D1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="592961984"/>
+        <c:axId val="592966576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="592961984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592966576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="592966576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592961984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle9!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle9!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1x1x1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x2x2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4x4x4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8x8x8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16x16x16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32x32x32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64x64x64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128x128x128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256x256x256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512x512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle9!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-961C-40FB-9CB7-8C8EBC37F43F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle9!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle9!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1x1x1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x2x2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4x4x4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8x8x8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16x16x16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32x32x32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64x64x64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128x128x128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256x256x256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512x512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle9!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3946</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-961C-40FB-9CB7-8C8EBC37F43F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="643793784"/>
+        <c:axId val="643794112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="643793784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643794112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="643794112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643793784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1266,7 +2560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B30A84E-C44A-4C69-84F0-0934363BBBBE}" type="CELLRANGE">
+                    <a:fld id="{74AC6046-58AF-49DD-968A-D6D4FF1819C1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1300,7 +2594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FDF372B-8033-4531-B087-F6868BD69F3D}" type="CELLRANGE">
+                    <a:fld id="{225F8654-4013-463A-A7EB-7FDE574F59C8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1334,7 +2628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4DEB99D-2553-430C-88D0-780A3A7A6AFD}" type="CELLRANGE">
+                    <a:fld id="{C0A210D4-4C22-44B2-AC86-291147D63EF6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1368,7 +2662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D97CE22D-1320-48C1-ACCA-A11D10297E86}" type="CELLRANGE">
+                    <a:fld id="{C52D93EC-BA1F-4151-A49E-EDE7D0D3667B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1402,7 +2696,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DB144CD-1AC7-432C-A20A-9C8CA7E80C5C}" type="CELLRANGE">
+                    <a:fld id="{C2454ABB-D05F-400C-BC63-05BD11A1FCDF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1436,7 +2730,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B83D8BDE-8EA7-4A3B-B9F1-9733581FD88C}" type="CELLRANGE">
+                    <a:fld id="{3194E4E2-258F-4D4A-A45E-E70D0E05623C}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1470,7 +2764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF2E1D10-C24E-408F-9604-02A7C4775294}" type="CELLRANGE">
+                    <a:fld id="{1AF056BF-BCD9-459D-98B7-0730D62029F8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1504,7 +2798,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E39F391-4489-4A72-BF5D-6A08347C8440}" type="CELLRANGE">
+                    <a:fld id="{79365CE6-47EC-4179-BC8D-9E3A3A4BE7B2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1538,7 +2832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{403E3282-6FC4-4A46-8368-A0D8225A03C5}" type="CELLRANGE">
+                    <a:fld id="{99DAA137-8068-4423-B5A5-444A045669EB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1810,7 +3104,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B87FAE0-FC47-4137-88BF-2B4CF449CDE8}" type="CELLRANGE">
+                    <a:fld id="{0BE2B4D0-111C-48CC-931A-4771F124D34C}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1844,7 +3138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DB05E0A-11E3-4A80-BB3A-E0AC11491C0D}" type="CELLRANGE">
+                    <a:fld id="{8679869C-54E6-4E1D-8EF4-2E7E72CDAFE7}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1878,7 +3172,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF7679E4-6214-456D-9461-2E5F3A92AC34}" type="CELLRANGE">
+                    <a:fld id="{48B83C11-EC9C-4DD0-9F68-D43D9D5C0318}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1912,7 +3206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC1BFB3D-04F2-44C1-BA5D-4E65EF92DFA2}" type="CELLRANGE">
+                    <a:fld id="{0D3696AB-FB3A-4C63-A105-64C6A74E9528}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1946,7 +3240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C010D404-9B86-4AEB-81F8-3C7708B3F249}" type="CELLRANGE">
+                    <a:fld id="{FCA2BE01-4A5A-41E8-9AD8-03BA544ACD7A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1980,7 +3274,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7467A174-400A-4037-AE81-0320426078B1}" type="CELLRANGE">
+                    <a:fld id="{76106A4B-B7B7-4751-8914-BD462E96AC5E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2014,7 +3308,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A2F7EBE-4075-43D7-93B5-EC0468E4AF61}" type="CELLRANGE">
+                    <a:fld id="{88FFC1CF-BF34-41CA-BFF7-3C16EB202233}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2048,7 +3342,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0EAF7DA-C49C-44B3-88B5-8249CA645AAF}" type="CELLRANGE">
+                    <a:fld id="{6E60A194-A657-4489-B377-92A84D1B28FF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2082,7 +3376,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{891A8803-192C-41B0-BD59-444F99ADFB5B}" type="CELLRANGE">
+                    <a:fld id="{34CBAF06-F081-4980-95F5-90589148B25B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2354,7 +3648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B2941BC-D97B-4B4A-9CC6-3617B716D7C6}" type="CELLRANGE">
+                    <a:fld id="{F6CC02E7-E12C-4FDB-A776-4941F661F602}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2388,7 +3682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5064DD7-8C11-4B75-8B89-BE90D04C80A9}" type="CELLRANGE">
+                    <a:fld id="{123B6D39-7FB3-474E-8033-080F8C5BF00D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2422,7 +3716,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38581536-9D83-4CB5-A11F-06EB04EFBA06}" type="CELLRANGE">
+                    <a:fld id="{AFAFCCDB-7B5E-4D73-A386-D77F4639C60E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2456,7 +3750,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D981700C-9D31-40D0-91FD-F2C9995E53C4}" type="CELLRANGE">
+                    <a:fld id="{1B69CF39-0349-4006-AA63-D54D96330246}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2490,7 +3784,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5802476B-6C9A-47E5-950C-8FFC17582CC3}" type="CELLRANGE">
+                    <a:fld id="{5B6ECA58-0DBC-4CC4-A2F7-C9162BB6F978}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2524,7 +3818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{562873BB-435E-4BD3-9495-13EB46802496}" type="CELLRANGE">
+                    <a:fld id="{1B0DC618-72CA-428A-819A-547525133C8F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2558,7 +3852,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81658EDC-C168-46F1-A89D-F88B969F99BB}" type="CELLRANGE">
+                    <a:fld id="{E8FA78ED-B831-481D-B25D-0BE4D36416B6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2592,7 +3886,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4486484-1C40-45C3-BAB9-583E5BA061B5}" type="CELLRANGE">
+                    <a:fld id="{D9993F9F-9C3E-4B0B-A96B-8CF7A5B946F1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2626,7 +3920,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC74A2E4-D6BC-48E0-AB3C-47253CF7D1F0}" type="CELLRANGE">
+                    <a:fld id="{8C55E38F-ADB8-43A9-A59A-80E87A9284B4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10959,7 +12253,878 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Kopieren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle6!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle6!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8697-44B0-9E37-961F0FC3C3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Allokieren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle6!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle6!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8697-44B0-9E37-961F0FC3C3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle6!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Kernel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle6!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle6!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8697-44B0-9E37-961F0FC3C3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="429302344"/>
+        <c:axId val="429301032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="429302344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429301032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429301032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429302344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11279,6 +13444,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11795,8 +14000,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12000,6 +14205,1515 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -15364,6 +19078,511 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -15706,6 +19925,160 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>51434</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E5C95B-5767-47C6-8C6C-D8F83BA76D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFBEACE-B19E-4895-89A7-E625FEC2D0A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3BF4DB-E387-486C-B8AB-9B674D25E038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBBF6D23-7E67-4A0D-823E-F436758484D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -15716,170 +20089,120 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="B1" t="str">
-            <v xml:space="preserve"> Kopieren</v>
+            <v xml:space="preserve"> GPU</v>
           </cell>
           <cell r="C1" t="str">
-            <v xml:space="preserve"> Allokieren</v>
+            <v xml:space="preserve"> CPU</v>
           </cell>
         </row>
         <row r="2">
+          <cell r="A2" t="str">
+            <v>1x1x1</v>
+          </cell>
           <cell r="B2">
-            <v>15</v>
+            <v>445</v>
           </cell>
           <cell r="C2">
-            <v>5</v>
+            <v>1217</v>
           </cell>
         </row>
         <row r="3">
+          <cell r="A3" t="str">
+            <v>2x2x2</v>
+          </cell>
           <cell r="B3">
-            <v>30</v>
+            <v>448</v>
           </cell>
           <cell r="C3">
-            <v>6</v>
+            <v>1475</v>
           </cell>
         </row>
         <row r="4">
+          <cell r="A4" t="str">
+            <v>4x4x4</v>
+          </cell>
           <cell r="B4">
-            <v>45</v>
+            <v>448</v>
           </cell>
           <cell r="C4">
-            <v>8</v>
+            <v>1544</v>
           </cell>
         </row>
         <row r="5">
+          <cell r="A5" t="str">
+            <v>8x8x8</v>
+          </cell>
           <cell r="B5">
-            <v>60</v>
+            <v>445</v>
           </cell>
           <cell r="C5">
-            <v>9</v>
+            <v>1434</v>
           </cell>
         </row>
         <row r="6">
+          <cell r="A6" t="str">
+            <v>16x16x16</v>
+          </cell>
           <cell r="B6">
-            <v>75</v>
+            <v>448</v>
           </cell>
           <cell r="C6">
-            <v>11</v>
+            <v>1315</v>
           </cell>
         </row>
         <row r="7">
+          <cell r="A7" t="str">
+            <v>32x32x32</v>
+          </cell>
           <cell r="B7">
-            <v>89</v>
+            <v>450</v>
           </cell>
           <cell r="C7">
-            <v>13</v>
+            <v>1352</v>
           </cell>
         </row>
         <row r="8">
+          <cell r="A8" t="str">
+            <v>64x64x64</v>
+          </cell>
           <cell r="B8">
-            <v>105</v>
+            <v>451</v>
           </cell>
           <cell r="C8">
-            <v>15</v>
+            <v>1436</v>
           </cell>
         </row>
         <row r="9">
+          <cell r="A9" t="str">
+            <v>128x128x128</v>
+          </cell>
           <cell r="B9">
-            <v>119</v>
+            <v>451</v>
           </cell>
           <cell r="C9">
-            <v>16</v>
+            <v>1925</v>
           </cell>
         </row>
         <row r="10">
+          <cell r="A10" t="str">
+            <v>256x256x256</v>
+          </cell>
           <cell r="B10">
-            <v>133</v>
+            <v>464</v>
           </cell>
           <cell r="C10">
-            <v>18</v>
+            <v>3946</v>
           </cell>
         </row>
         <row r="11">
+          <cell r="A11" t="str">
+            <v>512x512x512</v>
+          </cell>
           <cell r="B11">
-            <v>147</v>
+            <v>653</v>
           </cell>
           <cell r="C11">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>163</v>
-          </cell>
-          <cell r="C12">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>177</v>
-          </cell>
-          <cell r="C13">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>191</v>
-          </cell>
-          <cell r="C14">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>208</v>
-          </cell>
-          <cell r="C15">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>222</v>
-          </cell>
-          <cell r="C16">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>236</v>
-          </cell>
-          <cell r="C17">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>250</v>
-          </cell>
-          <cell r="C18">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>267</v>
-          </cell>
-          <cell r="C19">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>282</v>
-          </cell>
-          <cell r="C20">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>297</v>
-          </cell>
-          <cell r="C21">
-            <v>35</v>
+            <v>10227</v>
           </cell>
         </row>
       </sheetData>
@@ -16194,42 +20517,42 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="50">
         <v>20</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
@@ -16255,12 +20578,12 @@
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
       <c r="H5" s="22" t="s">
         <v>2</v>
       </c>
@@ -16316,12 +20639,12 @@
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
       <c r="H6" s="25">
         <v>200000</v>
       </c>
@@ -16389,12 +20712,12 @@
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
       <c r="H7" s="25">
         <v>400000</v>
       </c>
@@ -16462,12 +20785,12 @@
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="H8" s="25">
         <v>600000</v>
       </c>
@@ -16535,12 +20858,12 @@
       <c r="A9" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
       <c r="H9" s="25">
         <v>800000</v>
       </c>
@@ -17025,23 +21348,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -17053,78 +21376,78 @@
       <c r="A4" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="50">
         <v>20</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -17429,101 +21752,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="50">
         <v>20</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="50">
         <v>2000000</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -17544,18 +21867,18 @@
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="48">
         <f>ROUND(E22,0)</f>
         <v>20</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="48">
         <f>ROUND(F22,0)</f>
         <v>49</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="48">
         <v>19.948</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="49">
         <v>48.581000000000003</v>
       </c>
       <c r="G22" s="5"/>
@@ -17564,18 +21887,18 @@
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="55">
+      <c r="B23" s="48">
         <f t="shared" ref="B23:B30" si="0">ROUND(E23,0)</f>
         <v>20</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="48">
         <f t="shared" ref="C23:C30" si="1">ROUND(F23,0)</f>
         <v>55</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="48">
         <v>19.771000000000001</v>
       </c>
-      <c r="F23" s="56">
+      <c r="F23" s="49">
         <v>55.262</v>
       </c>
       <c r="G23" s="5"/>
@@ -17584,18 +21907,18 @@
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="55">
+      <c r="B24" s="48">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="48">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="48">
         <v>19.707999999999998</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="49">
         <v>53.764000000000003</v>
       </c>
       <c r="G24" s="5"/>
@@ -17604,18 +21927,18 @@
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="55">
+      <c r="B25" s="48">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="48">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="48">
         <v>19.718</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="49">
         <v>51.755000000000003</v>
       </c>
       <c r="G25" s="5"/>
@@ -17624,18 +21947,18 @@
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="55">
+      <c r="B26" s="48">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="48">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="48">
         <v>19.847999999999999</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="49">
         <v>55.542999999999999</v>
       </c>
       <c r="G26" s="5"/>
@@ -17644,18 +21967,18 @@
       <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="48">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="48">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="48">
         <v>19.527999999999999</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="49">
         <v>67.188000000000002</v>
       </c>
       <c r="G27" s="5"/>
@@ -17664,18 +21987,18 @@
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="55">
+      <c r="B28" s="48">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="48">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="48">
         <v>20.294</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="49">
         <v>117.726</v>
       </c>
       <c r="G28" s="5"/>
@@ -17684,18 +22007,18 @@
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="55">
+      <c r="B29" s="48">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="48">
         <f t="shared" si="1"/>
         <v>316</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="48">
         <v>21.428999999999998</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="49">
         <v>315.92899999999997</v>
       </c>
       <c r="G29" s="5"/>
@@ -17704,18 +22027,18 @@
       <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="55">
+      <c r="B30" s="48">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="48">
         <f t="shared" si="1"/>
         <v>481</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="48">
         <v>30.869</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="49">
         <v>480.88400000000001</v>
       </c>
       <c r="G30" s="5"/>
@@ -17760,78 +22083,78 @@
       <c r="A3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="50">
         <v>20</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -19555,7 +23878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -19569,78 +23892,78 @@
       <c r="A2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="50">
         <v>0</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -20326,78 +24649,78 @@
       <c r="A2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="50">
         <v>200</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="50">
         <v>562500</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
@@ -21760,4 +26083,451 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E52132-D18F-438F-A3EA-420CEE5475EB}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3000000</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6000000</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9000000</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12000000</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15000000</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18000000</v>
+      </c>
+      <c r="B7">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21000000</v>
+      </c>
+      <c r="B8">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24000000</v>
+      </c>
+      <c r="B9">
+        <v>119</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>27000000</v>
+      </c>
+      <c r="B10">
+        <v>133</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30000000</v>
+      </c>
+      <c r="B11">
+        <v>147</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>33000000</v>
+      </c>
+      <c r="B12">
+        <v>163</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>36000000</v>
+      </c>
+      <c r="B13">
+        <v>177</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>39000000</v>
+      </c>
+      <c r="B14">
+        <v>191</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>42000000</v>
+      </c>
+      <c r="B15">
+        <v>208</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>45000000</v>
+      </c>
+      <c r="B16">
+        <v>222</v>
+      </c>
+      <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>48000000</v>
+      </c>
+      <c r="B17">
+        <v>236</v>
+      </c>
+      <c r="C17">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>51000000</v>
+      </c>
+      <c r="B18">
+        <v>250</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>54000000</v>
+      </c>
+      <c r="B19">
+        <v>267</v>
+      </c>
+      <c r="C19">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>57000000</v>
+      </c>
+      <c r="B20">
+        <v>282</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60000000</v>
+      </c>
+      <c r="B21">
+        <v>297</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F32204-932D-42FE-A4EF-9754235A6E82}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>445</v>
+      </c>
+      <c r="C2">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>448</v>
+      </c>
+      <c r="C3">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>448</v>
+      </c>
+      <c r="C4">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>445</v>
+      </c>
+      <c r="C5">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>448</v>
+      </c>
+      <c r="C6">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>450</v>
+      </c>
+      <c r="C7">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>451</v>
+      </c>
+      <c r="C8">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>451</v>
+      </c>
+      <c r="C9">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>464</v>
+      </c>
+      <c r="C10">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>653</v>
+      </c>
+      <c r="C11">
+        <v>10227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>